--- a/Data/Metadata/DD_test_conditions.xlsx
+++ b/Data/Metadata/DD_test_conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dispe\Box\Nanogroup\Projects\Neural Probes\Spencer's Thesis - Elastic modulus testing\Dual deflection\Data\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACFC73D-75F2-4675-96F5-C70F82A18A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DACFC73D-75F2-4675-96F5-C70F82A18A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243BF677-A80C-4B53-B3B1-9521F9B22247}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,10 +727,10 @@
   <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -911,49 +911,52 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E34" si="0">D3-F3</f>
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I34" si="1">H3-F3</f>
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
-        <v>2788</v>
+        <v>2520</v>
       </c>
       <c r="L3">
         <v>10</v>
+      </c>
+      <c r="M3">
+        <v>225</v>
       </c>
       <c r="O3">
         <v>5</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P34" si="2">K3-M3</f>
-        <v>2788</v>
+        <v>2295</v>
       </c>
       <c r="Q3">
         <v>40</v>
@@ -975,60 +978,60 @@
         <v>2.137</v>
       </c>
       <c r="W3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>300</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>250</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
-        <v>2788</v>
+        <v>2520</v>
       </c>
       <c r="L4">
         <v>10</v>
       </c>
       <c r="M4">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="O4">
         <v>5</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>2637</v>
+        <v>2280</v>
       </c>
       <c r="Q4">
         <v>40</v>
@@ -1050,7 +1053,7 @@
         <v>2.137</v>
       </c>
       <c r="W4" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="7" t="b">
         <v>1</v>
@@ -1058,2045 +1061,2033 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <f>H5-F5</f>
+        <v>285</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>2520</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>258</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>2262</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>1.27</v>
+      </c>
+      <c r="U5" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>435</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>417</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>2520</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>281</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>2239</v>
+      </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <v>1.27</v>
+      </c>
+      <c r="U6" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
+        <v>435</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>2520</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>269</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>2251</v>
+      </c>
+      <c r="Q7">
+        <v>40</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>20</v>
+      </c>
+      <c r="T7">
+        <v>1.27</v>
+      </c>
+      <c r="U7" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>435</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>2520</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>246</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>2274</v>
+      </c>
+      <c r="Q8">
+        <v>40</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>1.27</v>
+      </c>
+      <c r="U8" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14">
+        <v>455</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13">
+        <v>300</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="J9" s="13">
+        <v>5</v>
+      </c>
+      <c r="K9" s="13">
+        <v>2520</v>
+      </c>
+      <c r="L9" s="13">
+        <v>10</v>
+      </c>
+      <c r="M9" s="13">
+        <v>234</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13">
+        <v>5</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="2"/>
+        <v>2286</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>40</v>
+      </c>
+      <c r="R9" s="13">
+        <v>2</v>
+      </c>
+      <c r="S9" s="13">
+        <v>20</v>
+      </c>
+      <c r="T9" s="13">
+        <v>1.27</v>
+      </c>
+      <c r="U9" s="15">
+        <v>213.7</v>
+      </c>
+      <c r="V9" s="15">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>455</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="F5">
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>2520</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>215</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>2305</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>20</v>
+      </c>
+      <c r="T10">
+        <v>1.27</v>
+      </c>
+      <c r="U10" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>705</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>2520</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>203</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>2317</v>
+      </c>
+      <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>20</v>
+      </c>
+      <c r="T11">
+        <v>1.27</v>
+      </c>
+      <c r="U11" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>707</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>704.5</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>497.5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>2520</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>220</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="Q12">
+        <v>40</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>20</v>
+      </c>
+      <c r="T12">
+        <v>1.27</v>
+      </c>
+      <c r="U12" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>710</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>500</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>2520</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>246</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>2274</v>
+      </c>
+      <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>20</v>
+      </c>
+      <c r="T13">
+        <v>1.27</v>
+      </c>
+      <c r="U13" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>710</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>702.5</v>
+      </c>
+      <c r="F14">
+        <v>7.5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>492.5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>2520</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>235</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>2285</v>
+      </c>
+      <c r="Q14">
+        <v>40</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>20</v>
+      </c>
+      <c r="T14">
+        <v>1.27</v>
+      </c>
+      <c r="U14" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>710</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>500</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>2520</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>221</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>2299</v>
+      </c>
+      <c r="Q15">
+        <v>40</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>1.27</v>
+      </c>
+      <c r="U15" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>285</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="F16">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>250</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>2788</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>205</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>2583</v>
+      </c>
+      <c r="Q16">
+        <v>40</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>20</v>
+      </c>
+      <c r="T16">
+        <v>1.27</v>
+      </c>
+      <c r="U16" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>300</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>2788</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>151</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>2637</v>
+      </c>
+      <c r="Q17">
+        <v>40</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>1.27</v>
+      </c>
+      <c r="U17" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>300</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
         <v>250</v>
       </c>
-      <c r="I5">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
         <v>2788</v>
       </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q5">
-        <v>40</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>20</v>
-      </c>
-      <c r="T5">
-        <v>1.27</v>
-      </c>
-      <c r="U5" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V5" s="7">
+      <c r="Q18">
+        <v>40</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+      <c r="T18">
+        <v>1.27</v>
+      </c>
+      <c r="U18" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V18" s="7">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="W18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="B19">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
         <v>300</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>296.66666666666669</v>
       </c>
-      <c r="F6">
+      <c r="F19">
         <v>3.3333333333333299</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
         <v>250</v>
       </c>
-      <c r="I6">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>246.66666666666666</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
         <v>2788</v>
       </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
         <v>244</v>
       </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="2"/>
         <v>2544</v>
       </c>
-      <c r="Q6">
-        <v>40</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>20</v>
-      </c>
-      <c r="T6">
-        <v>1.27</v>
-      </c>
-      <c r="U6" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V6" s="7">
+      <c r="Q19">
+        <v>40</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>20</v>
+      </c>
+      <c r="T19">
+        <v>1.27</v>
+      </c>
+      <c r="U19" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V19" s="7">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X6" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="W19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C20">
         <v>21</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D20" s="4">
         <v>300</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>293.33333333333331</v>
       </c>
-      <c r="F7">
+      <c r="F20">
         <v>6.6666666666666599</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
         <v>250</v>
       </c>
-      <c r="I7">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>243.33333333333334</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
         <v>2788</v>
       </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
         <v>247</v>
       </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="2"/>
         <v>2541</v>
       </c>
-      <c r="Q7">
-        <v>40</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>20</v>
-      </c>
-      <c r="T7">
-        <v>1.27</v>
-      </c>
-      <c r="U7" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V7" s="7">
+      <c r="Q20">
+        <v>40</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>20</v>
+      </c>
+      <c r="T20">
+        <v>1.27</v>
+      </c>
+      <c r="U20" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V20" s="7">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X7" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="W20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4">
-        <v>285</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="F8">
-        <v>9.9999999999999893</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>250</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>2788</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>205</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>2583</v>
-      </c>
-      <c r="Q8">
-        <v>40</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>20</v>
-      </c>
-      <c r="T8">
-        <v>1.27</v>
-      </c>
-      <c r="U8" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V8" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X8" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
         <v>305</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
         <v>250</v>
       </c>
-      <c r="I9">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
         <v>2788</v>
       </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
+      <c r="Q21">
+        <v>40</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>20</v>
+      </c>
+      <c r="T21">
+        <v>1.27</v>
+      </c>
+      <c r="U21" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4">
+        <v>305</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>250</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>2788</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
         <v>253</v>
       </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="2"/>
         <v>2535</v>
       </c>
-      <c r="Q9">
-        <v>40</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>20</v>
-      </c>
-      <c r="T9">
-        <v>1.27</v>
-      </c>
-      <c r="U9" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V9" s="7">
+      <c r="Q22">
+        <v>40</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>1.27</v>
+      </c>
+      <c r="U22" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V22" s="7">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X9" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="13">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="W22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4">
+        <v>415</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="F23">
+        <v>5.0000000000000044</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>350</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>2788</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
+      <c r="Q23">
+        <v>40</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>20</v>
+      </c>
+      <c r="T23">
+        <v>1.27</v>
+      </c>
+      <c r="U23" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>420</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>418.33333333333331</v>
+      </c>
+      <c r="F24">
+        <v>1.6666666666666681</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>350</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>348.33333333333331</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>2788</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>295</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>2493</v>
+      </c>
+      <c r="Q24">
+        <v>40</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>20</v>
+      </c>
+      <c r="T24">
+        <v>1.27</v>
+      </c>
+      <c r="U24" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>420</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>417.77777777777777</v>
+      </c>
+      <c r="F25">
+        <v>2.2222222222222241</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>350</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>347.77777777777777</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>2788</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>236</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>2552</v>
+      </c>
+      <c r="Q25">
+        <v>40</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+      <c r="T25">
+        <v>1.27</v>
+      </c>
+      <c r="U25" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D26" s="4">
+        <v>420</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>417.22222222222223</v>
+      </c>
+      <c r="F26">
+        <v>2.7777777777777803</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>350</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>2788</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
+      <c r="Q26">
+        <v>40</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>20</v>
+      </c>
+      <c r="T26">
+        <v>1.27</v>
+      </c>
+      <c r="U26" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4">
+        <v>420</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="F27">
+        <v>3.3333333333333361</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>350</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>346.66666666666669</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>2788</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
+      <c r="Q27">
+        <v>40</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>1.27</v>
+      </c>
+      <c r="U27" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>420</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>416.11111111111109</v>
+      </c>
+      <c r="F28">
+        <v>3.8888888888888919</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>350</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>346.11111111111109</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>2788</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
+      <c r="Q28">
+        <v>40</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
+      <c r="T28">
+        <v>1.27</v>
+      </c>
+      <c r="U28" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>425</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>420.55555555555554</v>
+      </c>
+      <c r="F29">
+        <v>4.4444444444444482</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>350</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>345.55555555555554</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>2788</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>2788</v>
+      </c>
+      <c r="Q29">
+        <v>40</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>20</v>
+      </c>
+      <c r="T29">
+        <v>1.27</v>
+      </c>
+      <c r="U29" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V29" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>430</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>428.88888888888891</v>
+      </c>
+      <c r="F30">
+        <v>1.111111111111112</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>350</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>348.88888888888891</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>2788</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>283</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>2505</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>20</v>
+      </c>
+      <c r="T30">
+        <v>1.27</v>
+      </c>
+      <c r="U30" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V30" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>445</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>444.44444444444446</v>
+      </c>
+      <c r="F31">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>350</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>349.44444444444446</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>2788</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>288</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="Q31">
+        <v>40</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>20</v>
+      </c>
+      <c r="T31">
+        <v>1.27</v>
+      </c>
+      <c r="U31" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V31" s="7">
+        <f t="shared" si="3"/>
+        <v>2.137</v>
+      </c>
+      <c r="W31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
         <v>455</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>5</v>
-      </c>
-      <c r="H10" s="13">
-        <v>300</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5</v>
-      </c>
-      <c r="K10" s="13">
-        <v>2520</v>
-      </c>
-      <c r="L10" s="13">
-        <v>10</v>
-      </c>
-      <c r="M10" s="13">
-        <v>234</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
-        <v>5</v>
-      </c>
-      <c r="P10" s="13">
-        <f t="shared" si="2"/>
-        <v>2286</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>40</v>
-      </c>
-      <c r="R10" s="13">
-        <v>2</v>
-      </c>
-      <c r="S10" s="13">
-        <v>20</v>
-      </c>
-      <c r="T10" s="13">
-        <v>1.27</v>
-      </c>
-      <c r="U10" s="15">
-        <v>213.7</v>
-      </c>
-      <c r="V10" s="15">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>435</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>429</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>300</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>294</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>2520</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>225</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>2295</v>
-      </c>
-      <c r="Q11">
-        <v>40</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>20</v>
-      </c>
-      <c r="T11">
-        <v>1.27</v>
-      </c>
-      <c r="U11" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V11" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4">
-        <v>435</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>300</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>291</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>2520</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>240</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>2280</v>
-      </c>
-      <c r="Q12">
-        <v>40</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>20</v>
-      </c>
-      <c r="T12">
-        <v>1.27</v>
-      </c>
-      <c r="U12" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V12" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>435</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>300</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>2520</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>258</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>2262</v>
-      </c>
-      <c r="Q13">
-        <v>40</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>20</v>
-      </c>
-      <c r="T13">
-        <v>1.27</v>
-      </c>
-      <c r="U13" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V13" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <v>435</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>417</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>300</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>282</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>2520</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>281</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>2239</v>
-      </c>
-      <c r="Q14">
-        <v>40</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>20</v>
-      </c>
-      <c r="T14">
-        <v>1.27</v>
-      </c>
-      <c r="U14" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V14" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>435</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>414</v>
-      </c>
-      <c r="F15">
-        <v>21</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>300</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>2520</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>269</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>2251</v>
-      </c>
-      <c r="Q15">
-        <v>40</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>20</v>
-      </c>
-      <c r="T15">
-        <v>1.27</v>
-      </c>
-      <c r="U15" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V15" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4">
-        <v>435</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>411</v>
-      </c>
-      <c r="F16">
-        <v>24</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>300</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>2520</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <v>246</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>2274</v>
-      </c>
-      <c r="Q16">
-        <v>40</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>20</v>
-      </c>
-      <c r="T16">
-        <v>1.27</v>
-      </c>
-      <c r="U16" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V16" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4">
-        <v>455</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>452</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>300</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>297</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>2520</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>215</v>
-      </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>2305</v>
-      </c>
-      <c r="Q17">
-        <v>40</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>20</v>
-      </c>
-      <c r="T17">
-        <v>1.27</v>
-      </c>
-      <c r="U17" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V17" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W17" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
-        <v>705</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>705</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>500</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>2520</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>203</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
-        <v>2317</v>
-      </c>
-      <c r="Q18">
-        <v>40</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>20</v>
-      </c>
-      <c r="T18">
-        <v>1.27</v>
-      </c>
-      <c r="U18" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V18" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4">
-        <v>710</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>705</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>500</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>495</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>2520</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>246</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
-        <v>2274</v>
-      </c>
-      <c r="Q19">
-        <v>40</v>
-      </c>
-      <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19">
-        <v>20</v>
-      </c>
-      <c r="T19">
-        <v>1.27</v>
-      </c>
-      <c r="U19" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V19" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W19" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
-        <v>710</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>702.5</v>
-      </c>
-      <c r="F20">
-        <v>7.5</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>500</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>492.5</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>2520</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20">
-        <v>235</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
-        <v>2285</v>
-      </c>
-      <c r="Q20">
-        <v>40</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>20</v>
-      </c>
-      <c r="T20">
-        <v>1.27</v>
-      </c>
-      <c r="U20" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V20" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4">
-        <v>710</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>500</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>2520</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21">
-        <v>221</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
-        <v>2299</v>
-      </c>
-      <c r="Q21">
-        <v>40</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>20</v>
-      </c>
-      <c r="T21">
-        <v>1.27</v>
-      </c>
-      <c r="U21" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V21" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>707</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>704.5</v>
-      </c>
-      <c r="F22">
-        <v>2.5</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>500</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>497.5</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>2520</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>220</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="Q22">
-        <v>40</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>20</v>
-      </c>
-      <c r="T22">
-        <v>1.27</v>
-      </c>
-      <c r="U22" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V22" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X22" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>280</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>200</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>3760</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23" s="12">
-        <v>315</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
-        <v>3445</v>
-      </c>
-      <c r="Q23">
-        <v>40</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>20</v>
-      </c>
-      <c r="T23">
-        <v>1.27</v>
-      </c>
-      <c r="U23" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V23" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4">
-        <v>300</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>200</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>4610</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24" s="12">
-        <v>196</v>
-      </c>
-      <c r="N24" s="12"/>
-      <c r="O24">
-        <v>5</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
-        <v>4414</v>
-      </c>
-      <c r="Q24">
-        <v>40</v>
-      </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>20</v>
-      </c>
-      <c r="T24">
-        <v>1.27</v>
-      </c>
-      <c r="U24" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V24" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25" s="4">
-        <v>335</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>335</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>200</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>4610</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-      <c r="M25" s="12">
-        <v>340</v>
-      </c>
-      <c r="N25" s="12"/>
-      <c r="O25">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
-        <v>4270</v>
-      </c>
-      <c r="Q25">
-        <v>40</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>20</v>
-      </c>
-      <c r="T25">
-        <v>1.27</v>
-      </c>
-      <c r="U25" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V25" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>295</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>295</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>200</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>3760</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>289</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
-        <v>3471</v>
-      </c>
-      <c r="Q26">
-        <v>40</v>
-      </c>
-      <c r="R26">
-        <v>2</v>
-      </c>
-      <c r="S26">
-        <v>20</v>
-      </c>
-      <c r="T26">
-        <v>1.27</v>
-      </c>
-      <c r="U26" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V26" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4">
-        <v>285</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>200</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>3760</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>295</v>
-      </c>
-      <c r="O27">
-        <v>5</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
-        <v>3465</v>
-      </c>
-      <c r="Q27">
-        <v>40</v>
-      </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
-      <c r="S27">
-        <v>20</v>
-      </c>
-      <c r="T27">
-        <v>1.27</v>
-      </c>
-      <c r="U27" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V27" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4">
-        <v>280</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>200</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28">
-        <v>3760</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="M28">
-        <v>330</v>
-      </c>
-      <c r="O28">
-        <v>5</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>3430</v>
-      </c>
-      <c r="Q28">
-        <v>40</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>20</v>
-      </c>
-      <c r="T28">
-        <v>1.27</v>
-      </c>
-      <c r="U28" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V28" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="13">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13">
-        <v>4</v>
-      </c>
-      <c r="D29" s="14">
-        <v>280</v>
-      </c>
-      <c r="E29" s="14">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>5</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <v>5</v>
-      </c>
-      <c r="K29" s="13">
-        <v>3760</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29">
-        <v>5</v>
-      </c>
-      <c r="P29" s="13">
-        <f t="shared" si="2"/>
-        <v>3760</v>
-      </c>
-      <c r="Q29">
-        <v>40</v>
-      </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
-        <v>20</v>
-      </c>
-      <c r="T29">
-        <v>1.27</v>
-      </c>
-      <c r="U29" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V29" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4">
-        <v>300</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>200</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>4610</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="O30">
-        <v>5</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
-        <v>4610</v>
-      </c>
-      <c r="Q30">
-        <v>40</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>20</v>
-      </c>
-      <c r="T30">
-        <v>1.27</v>
-      </c>
-      <c r="U30" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V30" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>16</v>
-      </c>
-      <c r="D31" s="4">
-        <v>340</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>200</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31">
-        <v>4610</v>
-      </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
-      <c r="O31">
-        <v>5</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
-        <v>4610</v>
-      </c>
-      <c r="Q31">
-        <v>40</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>20</v>
-      </c>
-      <c r="T31">
-        <v>1.27</v>
-      </c>
-      <c r="U31" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V31" s="7">
-        <f t="shared" si="3"/>
-        <v>2.137</v>
-      </c>
-      <c r="W31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4">
-        <v>445</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>444.44444444444446</v>
-      </c>
       <c r="F32">
-        <v>0.55555555555555602</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -3106,7 +3097,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>349.44444444444446</v>
+        <v>350</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3118,14 +3109,14 @@
         <v>10</v>
       </c>
       <c r="M32">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="O32">
         <v>5</v>
       </c>
       <c r="P32">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>2493</v>
       </c>
       <c r="Q32">
         <v>40</v>
@@ -3153,35 +3144,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
-        <v>430</v>
+        <v>685</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>428.88888888888891</v>
+        <v>685</v>
       </c>
       <c r="F33">
-        <v>1.111111111111112</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>348.88888888888891</v>
+        <v>550</v>
       </c>
       <c r="J33">
         <v>5</v>
@@ -3193,14 +3184,14 @@
         <v>10</v>
       </c>
       <c r="M33">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33">
         <f t="shared" si="2"/>
-        <v>2505</v>
+        <v>2607</v>
       </c>
       <c r="Q33">
         <v>40</v>
@@ -3227,36 +3218,39 @@
       <c r="X33" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4">
-        <v>420</v>
+        <v>695</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>418.33333333333331</v>
+        <v>693.75</v>
       </c>
       <c r="F34">
-        <v>1.6666666666666681</v>
+        <v>1.25</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>348.33333333333331</v>
+        <v>548.75</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3268,14 +3262,14 @@
         <v>10</v>
       </c>
       <c r="M34">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="O34">
         <v>5</v>
       </c>
       <c r="P34">
         <f t="shared" si="2"/>
-        <v>2493</v>
+        <v>2631</v>
       </c>
       <c r="Q34">
         <v>40</v>
@@ -3303,35 +3297,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" s="4">
-        <v>420</v>
+        <v>705</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:E67" si="4">D35-F35</f>
-        <v>417.77777777777777</v>
+        <f t="shared" ref="E35:E66" si="4">D35-F35</f>
+        <v>702.5</v>
       </c>
       <c r="F35">
-        <v>2.2222222222222241</v>
+        <v>2.5</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I67" si="5">H35-F35</f>
-        <v>347.77777777777777</v>
+        <f t="shared" ref="I35:I66" si="5">H35-F35</f>
+        <v>547.5</v>
       </c>
       <c r="J35">
         <v>5</v>
@@ -3343,14 +3337,14 @@
         <v>10</v>
       </c>
       <c r="M35">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="O35">
         <v>5</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P35:P67" si="6">K35-M35</f>
-        <v>2552</v>
+        <f t="shared" ref="P35:P66" si="6">K35-M35</f>
+        <v>2588</v>
       </c>
       <c r="Q35">
         <v>40</v>
@@ -3368,7 +3362,7 @@
         <v>213.7</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" ref="V35:V67" si="7">U35*0.01</f>
+        <f t="shared" ref="V35:V66" si="7">U35*0.01</f>
         <v>2.137</v>
       </c>
       <c r="W35" s="7" t="b">
@@ -3378,35 +3372,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" s="4">
-        <v>420</v>
+        <v>710</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="4"/>
-        <v>417.22222222222223</v>
+        <v>706.25</v>
       </c>
       <c r="F36">
-        <v>2.7777777777777803</v>
+        <v>3.75</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
       <c r="H36">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I36">
         <f t="shared" si="5"/>
-        <v>347.22222222222223</v>
+        <v>546.25</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -3417,12 +3411,15 @@
       <c r="L36">
         <v>10</v>
       </c>
+      <c r="M36">
+        <v>170</v>
+      </c>
       <c r="O36">
         <v>5</v>
       </c>
       <c r="P36">
         <f t="shared" si="6"/>
-        <v>2788</v>
+        <v>2618</v>
       </c>
       <c r="Q36">
         <v>40</v>
@@ -3447,38 +3444,38 @@
         <v>0</v>
       </c>
       <c r="X36" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" s="4">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="4"/>
-        <v>416.66666666666669</v>
+        <v>715</v>
       </c>
       <c r="F37">
-        <v>3.3333333333333361</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="I37">
         <f t="shared" si="5"/>
-        <v>346.66666666666669</v>
+        <v>545</v>
       </c>
       <c r="J37">
         <v>5</v>
@@ -3489,12 +3486,15 @@
       <c r="L37">
         <v>10</v>
       </c>
+      <c r="M37">
+        <v>171</v>
+      </c>
       <c r="O37">
         <v>5</v>
       </c>
       <c r="P37">
         <f t="shared" si="6"/>
-        <v>2788</v>
+        <v>2617</v>
       </c>
       <c r="Q37">
         <v>40</v>
@@ -3519,38 +3519,38 @@
         <v>0</v>
       </c>
       <c r="X37" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>420</v>
+        <v>3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>725</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="4"/>
-        <v>416.11111111111109</v>
+        <v>725</v>
       </c>
       <c r="F38">
-        <v>3.8888888888888919</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>5</v>
       </c>
       <c r="H38">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="I38">
         <f t="shared" si="5"/>
-        <v>346.11111111111109</v>
+        <v>600</v>
       </c>
       <c r="J38">
         <v>5</v>
@@ -3561,12 +3561,15 @@
       <c r="L38">
         <v>10</v>
       </c>
+      <c r="M38">
+        <v>150</v>
+      </c>
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38">
         <f t="shared" si="6"/>
-        <v>2788</v>
+        <v>2638</v>
       </c>
       <c r="Q38">
         <v>40</v>
@@ -3591,38 +3594,38 @@
         <v>0</v>
       </c>
       <c r="X38" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <v>425</v>
+        <v>6</v>
+      </c>
+      <c r="D39" s="4">
+        <v>745</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="4"/>
-        <v>420.55555555555554</v>
+        <v>743</v>
       </c>
       <c r="F39">
-        <v>4.4444444444444482</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="I39">
         <f t="shared" si="5"/>
-        <v>345.55555555555554</v>
+        <v>598</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -3633,12 +3636,15 @@
       <c r="L39">
         <v>10</v>
       </c>
+      <c r="M39">
+        <v>164</v>
+      </c>
       <c r="O39">
         <v>5</v>
       </c>
       <c r="P39">
         <f t="shared" si="6"/>
-        <v>2788</v>
+        <v>2624</v>
       </c>
       <c r="Q39">
         <v>40</v>
@@ -3663,54 +3669,58 @@
         <v>0</v>
       </c>
       <c r="X39" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D40" s="4">
-        <v>415</v>
+        <v>280</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="4"/>
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="F40">
-        <v>5.0000000000000044</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>5</v>
       </c>
       <c r="H40">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="I40">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>200</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40">
-        <v>2788</v>
+        <v>3760</v>
       </c>
       <c r="L40">
         <v>10</v>
       </c>
+      <c r="M40" s="12">
+        <v>315</v>
+      </c>
+      <c r="N40" s="12"/>
       <c r="O40">
         <v>5</v>
       </c>
       <c r="P40">
         <f t="shared" si="6"/>
-        <v>2788</v>
+        <v>3445</v>
       </c>
       <c r="Q40">
         <v>40</v>
@@ -3735,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="X40" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="4">
-        <v>455</v>
+        <v>280</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="4"/>
-        <v>455</v>
+        <v>280</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3762,30 +3772,30 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="I41">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="J41">
         <v>5</v>
       </c>
       <c r="K41">
-        <v>2788</v>
+        <v>3760</v>
       </c>
       <c r="L41">
         <v>10</v>
       </c>
       <c r="M41">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O41">
         <v>5</v>
       </c>
       <c r="P41">
         <f t="shared" si="6"/>
-        <v>2493</v>
+        <v>3430</v>
       </c>
       <c r="Q41">
         <v>40</v>
@@ -3813,48 +3823,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
-        <v>690</v>
-      </c>
-      <c r="E42" s="4">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13">
+        <v>4</v>
+      </c>
+      <c r="D42" s="14">
+        <v>280</v>
+      </c>
+      <c r="E42" s="14">
         <f t="shared" si="4"/>
-        <v>690</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>5</v>
+      </c>
+      <c r="H42" s="13"/>
       <c r="I42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-      <c r="K42">
-        <v>4610</v>
+      <c r="J42" s="13">
+        <v>5</v>
+      </c>
+      <c r="K42" s="13">
+        <v>3760</v>
       </c>
       <c r="L42">
         <v>10</v>
       </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
       <c r="O42">
         <v>5</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="13">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>3760</v>
       </c>
       <c r="Q42">
         <v>40</v>
@@ -3882,48 +3895,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" s="4">
-        <v>705</v>
+        <v>285</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="4"/>
-        <v>703.25</v>
+        <v>285</v>
       </c>
       <c r="F43">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>5</v>
+      </c>
+      <c r="H43">
+        <v>200</v>
       </c>
       <c r="I43">
         <f t="shared" si="5"/>
-        <v>-1.75</v>
+        <v>200</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
       <c r="K43">
-        <v>4610</v>
+        <v>3760</v>
       </c>
       <c r="L43">
         <v>10</v>
+      </c>
+      <c r="M43">
+        <v>295</v>
       </c>
       <c r="O43">
         <v>5</v>
       </c>
       <c r="P43">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>3465</v>
       </c>
       <c r="Q43">
         <v>40</v>
@@ -3948,51 +3967,57 @@
         <v>0</v>
       </c>
       <c r="X43" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>710</v>
+        <v>295</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="4"/>
-        <v>706.5</v>
+        <v>295</v>
       </c>
       <c r="F44">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>5</v>
+      </c>
+      <c r="H44">
+        <v>200</v>
       </c>
       <c r="I44">
         <f t="shared" si="5"/>
-        <v>-3.5</v>
+        <v>200</v>
       </c>
       <c r="J44">
         <v>5</v>
       </c>
       <c r="K44">
-        <v>4610</v>
+        <v>3760</v>
       </c>
       <c r="L44">
         <v>10</v>
+      </c>
+      <c r="M44">
+        <v>289</v>
       </c>
       <c r="O44">
         <v>5</v>
       </c>
       <c r="P44">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>3471</v>
       </c>
       <c r="Q44">
         <v>40</v>
@@ -4017,35 +4042,38 @@
         <v>0</v>
       </c>
       <c r="X44" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D45" s="4">
-        <v>695</v>
+        <v>300</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="4"/>
-        <v>689.75</v>
+        <v>300</v>
       </c>
       <c r="F45">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>5</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
       </c>
       <c r="I45">
         <f t="shared" si="5"/>
-        <v>-5.25</v>
+        <v>200</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -4056,12 +4084,16 @@
       <c r="L45">
         <v>10</v>
       </c>
+      <c r="M45" s="12">
+        <v>196</v>
+      </c>
+      <c r="N45" s="12"/>
       <c r="O45">
         <v>5</v>
       </c>
       <c r="P45">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>4414</v>
       </c>
       <c r="Q45">
         <v>40</v>
@@ -4086,35 +4118,38 @@
         <v>0</v>
       </c>
       <c r="X45" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4">
-        <v>685</v>
+        <v>300</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="4"/>
-        <v>678</v>
+        <v>300</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>5</v>
+      </c>
+      <c r="H46">
+        <v>200</v>
       </c>
       <c r="I46">
         <f t="shared" si="5"/>
-        <v>-7</v>
+        <v>200</v>
       </c>
       <c r="J46">
         <v>5</v>
@@ -4158,32 +4193,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D47" s="4">
-        <v>700</v>
+        <v>335</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>335</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
         <v>5</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
       </c>
       <c r="I47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -4194,12 +4232,16 @@
       <c r="L47">
         <v>10</v>
       </c>
+      <c r="M47" s="12">
+        <v>340</v>
+      </c>
+      <c r="N47" s="12"/>
       <c r="O47">
         <v>5</v>
       </c>
       <c r="P47">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>4270</v>
       </c>
       <c r="Q47">
         <v>40</v>
@@ -4224,35 +4266,38 @@
         <v>0</v>
       </c>
       <c r="X47" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D48" s="4">
-        <v>720</v>
+        <v>340</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="4"/>
-        <v>718.25</v>
+        <v>340</v>
       </c>
       <c r="F48">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>5</v>
+      </c>
+      <c r="H48">
+        <v>200</v>
       </c>
       <c r="I48">
         <f t="shared" si="5"/>
-        <v>-1.75</v>
+        <v>200</v>
       </c>
       <c r="J48">
         <v>5</v>
@@ -4293,35 +4338,38 @@
         <v>0</v>
       </c>
       <c r="X48" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D49" s="4">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="4"/>
-        <v>716.5</v>
+        <v>440</v>
       </c>
       <c r="F49">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>5</v>
+      </c>
+      <c r="H49">
+        <v>300</v>
       </c>
       <c r="I49">
         <f t="shared" si="5"/>
-        <v>-3.5</v>
+        <v>300</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -4332,12 +4380,18 @@
       <c r="L49">
         <v>10</v>
       </c>
+      <c r="M49">
+        <v>288</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
       <c r="O49">
         <v>5</v>
       </c>
       <c r="P49">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>4322</v>
       </c>
       <c r="Q49">
         <v>40</v>
@@ -4362,35 +4416,38 @@
         <v>0</v>
       </c>
       <c r="X49" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D50" s="4">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="4"/>
-        <v>694.75</v>
+        <v>448</v>
       </c>
       <c r="F50">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>5</v>
+      </c>
+      <c r="H50">
+        <v>300</v>
       </c>
       <c r="I50">
         <f t="shared" si="5"/>
-        <v>-5.25</v>
+        <v>298</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4401,12 +4458,18 @@
       <c r="L50">
         <v>10</v>
       </c>
+      <c r="M50">
+        <v>298.3</v>
+      </c>
+      <c r="N50">
+        <v>7.8070000000000004</v>
+      </c>
       <c r="O50">
         <v>5</v>
       </c>
       <c r="P50">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>4311.7</v>
       </c>
       <c r="Q50">
         <v>40</v>
@@ -4431,38 +4494,38 @@
         <v>0</v>
       </c>
       <c r="X50" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D51" s="4">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="4"/>
-        <v>716.5</v>
+        <v>448</v>
       </c>
       <c r="F51">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>5</v>
       </c>
       <c r="H51">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I51">
         <f t="shared" si="5"/>
-        <v>496.5</v>
+        <v>298</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -4474,14 +4537,17 @@
         <v>10</v>
       </c>
       <c r="M51">
-        <v>321</v>
+        <v>319.60000000000002</v>
+      </c>
+      <c r="N51">
+        <v>18</v>
       </c>
       <c r="O51">
         <v>5</v>
       </c>
       <c r="P51">
         <f t="shared" si="6"/>
-        <v>4289</v>
+        <v>4290.3999999999996</v>
       </c>
       <c r="Q51">
         <v>40</v>
@@ -4508,36 +4574,39 @@
       <c r="X51" s="7" t="b">
         <v>1</v>
       </c>
+      <c r="Y51" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D52" s="4">
-        <v>710</v>
+        <v>450</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="4"/>
-        <v>704.75</v>
+        <v>446</v>
       </c>
       <c r="F52">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>5</v>
       </c>
       <c r="H52">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I52">
         <f t="shared" si="5"/>
-        <v>494.75</v>
+        <v>296</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -4549,14 +4618,17 @@
         <v>10</v>
       </c>
       <c r="M52">
-        <v>326</v>
+        <v>301.7</v>
+      </c>
+      <c r="N52">
+        <v>29.838000000000001</v>
       </c>
       <c r="O52">
         <v>5</v>
       </c>
       <c r="P52">
         <f t="shared" si="6"/>
-        <v>4284</v>
+        <v>4308.3</v>
       </c>
       <c r="Q52">
         <v>40</v>
@@ -4586,33 +4658,33 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D53" s="4">
-        <v>700</v>
+        <v>453</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" ref="E53" si="8">D53-F53</f>
-        <v>693</v>
+        <f t="shared" si="4"/>
+        <v>447</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
       <c r="H53">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53" si="9">H53-F53</f>
-        <v>493</v>
+        <f t="shared" si="5"/>
+        <v>294</v>
       </c>
       <c r="J53">
         <v>5</v>
@@ -4624,17 +4696,17 @@
         <v>10</v>
       </c>
       <c r="M53">
-        <v>403</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="N53">
-        <v>38.451000000000001</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="O53">
         <v>5</v>
       </c>
       <c r="P53">
-        <f t="shared" ref="P53" si="10">K53-M53</f>
-        <v>4207</v>
+        <f t="shared" si="6"/>
+        <v>4303.6000000000004</v>
       </c>
       <c r="Q53">
         <v>40</v>
@@ -4652,7 +4724,7 @@
         <v>213.7</v>
       </c>
       <c r="V53" s="7">
-        <f t="shared" ref="V53" si="11">U53*0.01</f>
+        <f t="shared" si="7"/>
         <v>2.137</v>
       </c>
       <c r="W53" s="7" t="b">
@@ -4664,33 +4736,33 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4">
-        <v>700</v>
+        <v>453</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="4"/>
-        <v>693</v>
+        <v>445</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <v>5</v>
       </c>
       <c r="H54">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I54">
         <f t="shared" si="5"/>
-        <v>493</v>
+        <v>292</v>
       </c>
       <c r="J54">
         <v>5</v>
@@ -4702,17 +4774,17 @@
         <v>10</v>
       </c>
       <c r="M54">
-        <v>369</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="N54">
-        <v>29.684000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="O54">
         <v>5</v>
       </c>
       <c r="P54">
         <f t="shared" si="6"/>
-        <v>4241</v>
+        <v>4299.3999999999996</v>
       </c>
       <c r="Q54">
         <v>40</v>
@@ -4737,35 +4809,38 @@
         <v>0</v>
       </c>
       <c r="X54" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D55" s="4">
-        <v>705</v>
+        <v>455</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="4"/>
-        <v>705</v>
+        <v>445</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>5</v>
+      </c>
+      <c r="H55">
+        <v>300</v>
       </c>
       <c r="I55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -4776,12 +4851,18 @@
       <c r="L55">
         <v>10</v>
       </c>
+      <c r="M55">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="N55">
+        <v>59.073</v>
+      </c>
       <c r="O55">
         <v>5</v>
       </c>
       <c r="P55">
         <f t="shared" si="6"/>
-        <v>4610</v>
+        <v>4301.8999999999996</v>
       </c>
       <c r="Q55">
         <v>40</v>
@@ -4806,38 +4887,38 @@
         <v>0</v>
       </c>
       <c r="X55" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D56" s="4">
-        <v>720</v>
+        <v>455</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="4"/>
-        <v>718.25</v>
+        <v>443</v>
       </c>
       <c r="F56">
-        <v>1.75</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <v>5</v>
       </c>
       <c r="H56">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I56">
         <f t="shared" si="5"/>
-        <v>498.25</v>
+        <v>288</v>
       </c>
       <c r="J56">
         <v>5</v>
@@ -4849,14 +4930,17 @@
         <v>10</v>
       </c>
       <c r="M56">
-        <v>339</v>
+        <v>304.10000000000002</v>
+      </c>
+      <c r="N56">
+        <v>79.244</v>
       </c>
       <c r="O56">
         <v>5</v>
       </c>
       <c r="P56">
         <f t="shared" si="6"/>
-        <v>4271</v>
+        <v>4305.8999999999996</v>
       </c>
       <c r="Q56">
         <v>40</v>
@@ -4886,52 +4970,52 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="4">
-        <v>725</v>
+        <v>460</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="4"/>
-        <v>725</v>
+        <v>459.4</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G57">
         <v>5</v>
       </c>
       <c r="H57">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I57">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="J57">
         <v>5</v>
       </c>
       <c r="K57">
-        <v>2788</v>
+        <v>4610</v>
       </c>
       <c r="L57">
         <v>10</v>
       </c>
       <c r="M57">
-        <v>150</v>
+        <v>250.5</v>
       </c>
       <c r="O57">
         <v>5</v>
       </c>
       <c r="P57">
         <f t="shared" si="6"/>
-        <v>2638</v>
+        <v>4359.5</v>
       </c>
       <c r="Q57">
         <v>40</v>
@@ -4961,52 +5045,52 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" s="4">
-        <v>745</v>
+        <v>460</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="4"/>
-        <v>743</v>
+        <v>458.8</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G58">
         <v>5</v>
       </c>
       <c r="H58">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I58">
         <f t="shared" si="5"/>
-        <v>598</v>
+        <v>298.8</v>
       </c>
       <c r="J58">
         <v>5</v>
       </c>
       <c r="K58">
-        <v>2788</v>
+        <v>4610</v>
       </c>
       <c r="L58">
         <v>10</v>
       </c>
       <c r="M58">
-        <v>164</v>
+        <v>246.5</v>
       </c>
       <c r="O58">
         <v>5</v>
       </c>
       <c r="P58">
         <f t="shared" si="6"/>
-        <v>2624</v>
+        <v>4363.5</v>
       </c>
       <c r="Q58">
         <v>40</v>
@@ -5036,52 +5120,52 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="4">
-        <v>695</v>
+        <v>460</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="4"/>
-        <v>693.75</v>
+        <v>458.2</v>
       </c>
       <c r="F59">
-        <v>1.25</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="I59">
         <f t="shared" si="5"/>
-        <v>548.75</v>
+        <v>298.2</v>
       </c>
       <c r="J59">
         <v>5</v>
       </c>
       <c r="K59">
-        <v>2788</v>
+        <v>4610</v>
       </c>
       <c r="L59">
         <v>10</v>
       </c>
       <c r="M59">
-        <v>157</v>
+        <v>240.6</v>
       </c>
       <c r="O59">
         <v>5</v>
       </c>
       <c r="P59">
         <f t="shared" si="6"/>
-        <v>2631</v>
+        <v>4369.3999999999996</v>
       </c>
       <c r="Q59">
         <v>40</v>
@@ -5111,52 +5195,52 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" s="4">
-        <v>705</v>
+        <v>460</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="4"/>
-        <v>702.5</v>
+        <v>457.6</v>
       </c>
       <c r="F60">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G60">
         <v>5</v>
       </c>
       <c r="H60">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="I60">
         <f t="shared" si="5"/>
-        <v>547.5</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60">
-        <v>2788</v>
+        <v>4610</v>
       </c>
       <c r="L60">
         <v>10</v>
       </c>
       <c r="M60">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="O60">
         <v>5</v>
       </c>
       <c r="P60">
         <f t="shared" si="6"/>
-        <v>2588</v>
+        <v>4354</v>
       </c>
       <c r="Q60">
         <v>40</v>
@@ -5186,52 +5270,52 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61" s="4">
-        <v>710</v>
+        <v>460</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="4"/>
-        <v>706.25</v>
+        <v>457</v>
       </c>
       <c r="F61">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G61">
         <v>5</v>
       </c>
       <c r="H61">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="I61">
         <f t="shared" si="5"/>
-        <v>546.25</v>
+        <v>297</v>
       </c>
       <c r="J61">
         <v>5</v>
       </c>
       <c r="K61">
-        <v>2788</v>
+        <v>4610</v>
       </c>
       <c r="L61">
         <v>10</v>
       </c>
       <c r="M61">
-        <v>170</v>
+        <v>235.7</v>
       </c>
       <c r="O61">
         <v>5</v>
       </c>
       <c r="P61">
         <f t="shared" si="6"/>
-        <v>2618</v>
+        <v>4374.3</v>
       </c>
       <c r="Q61">
         <v>40</v>
@@ -5261,52 +5345,55 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D62" s="4">
-        <v>720</v>
+        <v>462</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" si="4"/>
-        <v>715</v>
+        <v>448</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G62">
         <v>5</v>
       </c>
       <c r="H62">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="I62">
         <f t="shared" si="5"/>
-        <v>545</v>
+        <v>286</v>
       </c>
       <c r="J62">
         <v>5</v>
       </c>
       <c r="K62">
-        <v>2788</v>
+        <v>4610</v>
       </c>
       <c r="L62">
         <v>10</v>
       </c>
       <c r="M62">
-        <v>171</v>
+        <v>313</v>
+      </c>
+      <c r="N62">
+        <v>85.844999999999999</v>
       </c>
       <c r="O62">
         <v>5</v>
       </c>
       <c r="P62">
         <f t="shared" si="6"/>
-        <v>2617</v>
+        <v>4297</v>
       </c>
       <c r="Q62">
         <v>40</v>
@@ -5336,20 +5423,20 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" s="4">
-        <v>685</v>
+        <v>470</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="4"/>
-        <v>685</v>
+        <v>470</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5358,30 +5445,30 @@
         <v>5</v>
       </c>
       <c r="H63">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="I63">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
       <c r="K63">
-        <v>2788</v>
+        <v>4610</v>
       </c>
       <c r="L63">
         <v>10</v>
       </c>
       <c r="M63">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="O63">
         <v>5</v>
       </c>
       <c r="P63">
         <f t="shared" si="6"/>
-        <v>2607</v>
+        <v>4393</v>
       </c>
       <c r="Q63">
         <v>40</v>
@@ -5408,39 +5495,36 @@
       <c r="X63" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="Y63" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D64" s="4">
         <v>470</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="4"/>
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G64">
         <v>5</v>
       </c>
       <c r="H64">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I64">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="J64">
         <v>5</v>
@@ -5452,14 +5536,17 @@
         <v>10</v>
       </c>
       <c r="M64">
-        <v>217</v>
+        <v>275.7</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
       </c>
       <c r="O64">
         <v>5</v>
       </c>
       <c r="P64">
         <f t="shared" si="6"/>
-        <v>4393</v>
+        <v>4334.3</v>
       </c>
       <c r="Q64">
         <v>40</v>
@@ -5487,35 +5574,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D65" s="4">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="4"/>
-        <v>459.4</v>
+        <v>452</v>
       </c>
       <c r="F65">
-        <v>0.6</v>
+        <v>18</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
       <c r="H65">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I65">
         <f t="shared" si="5"/>
-        <v>299.39999999999998</v>
+        <v>182</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -5527,14 +5614,17 @@
         <v>10</v>
       </c>
       <c r="M65">
-        <v>250.5</v>
+        <v>272.5</v>
+      </c>
+      <c r="N65">
+        <v>19</v>
       </c>
       <c r="O65">
         <v>5</v>
       </c>
       <c r="P65">
         <f t="shared" si="6"/>
-        <v>4359.5</v>
+        <v>4337.5</v>
       </c>
       <c r="Q65">
         <v>40</v>
@@ -5562,35 +5652,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D66" s="4">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="4"/>
-        <v>458.8</v>
+        <v>455</v>
       </c>
       <c r="F66">
-        <v>1.2</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
       <c r="H66">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I66">
         <f t="shared" si="5"/>
-        <v>298.8</v>
+        <v>180</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -5602,14 +5692,17 @@
         <v>10</v>
       </c>
       <c r="M66">
-        <v>246.5</v>
+        <v>278.3</v>
+      </c>
+      <c r="N66">
+        <v>28.974</v>
       </c>
       <c r="O66">
         <v>5</v>
       </c>
       <c r="P66">
         <f t="shared" si="6"/>
-        <v>4363.5</v>
+        <v>4331.7</v>
       </c>
       <c r="Q66">
         <v>40</v>
@@ -5637,25 +5730,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D67" s="4">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="4"/>
-        <v>458.2</v>
-      </c>
-      <c r="F67">
-        <v>1.7999999999999998</v>
+        <f t="shared" ref="E67:E98" si="8">D67-F67</f>
+        <v>550</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -5664,8 +5757,8 @@
         <v>300</v>
       </c>
       <c r="I67">
-        <f t="shared" si="5"/>
-        <v>298.2</v>
+        <f t="shared" ref="I67:I98" si="9">H67-F67</f>
+        <v>300</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -5677,14 +5770,17 @@
         <v>10</v>
       </c>
       <c r="M67">
-        <v>240.6</v>
+        <v>303.89999999999998</v>
+      </c>
+      <c r="N67">
+        <v>65.873999999999995</v>
       </c>
       <c r="O67">
         <v>5</v>
       </c>
       <c r="P67">
-        <f t="shared" si="6"/>
-        <v>4369.3999999999996</v>
+        <f t="shared" ref="P67:P97" si="10">K67-M67</f>
+        <v>4306.1000000000004</v>
       </c>
       <c r="Q67">
         <v>40</v>
@@ -5702,7 +5798,7 @@
         <v>213.7</v>
       </c>
       <c r="V67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V67:V98" si="11">U67*0.01</f>
         <v>2.137</v>
       </c>
       <c r="W67" s="7" t="b">
@@ -5712,25 +5808,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D68" s="4">
-        <v>460</v>
+        <v>555</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" ref="E68:E97" si="12">D68-F68</f>
-        <v>457.6</v>
-      </c>
-      <c r="F68">
-        <v>2.4</v>
+        <f t="shared" si="8"/>
+        <v>553.5</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1.5</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -5739,8 +5835,8 @@
         <v>300</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I97" si="13">H68-F68</f>
-        <v>297.60000000000002</v>
+        <f t="shared" si="9"/>
+        <v>298.5</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -5752,14 +5848,17 @@
         <v>10</v>
       </c>
       <c r="M68">
-        <v>256</v>
+        <v>289.5</v>
+      </c>
+      <c r="N68">
+        <v>2.403</v>
       </c>
       <c r="O68">
         <v>5</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P97" si="14">K68-M68</f>
-        <v>4354</v>
+        <f t="shared" si="10"/>
+        <v>4320.5</v>
       </c>
       <c r="Q68">
         <v>40</v>
@@ -5777,7 +5876,7 @@
         <v>213.7</v>
       </c>
       <c r="V68" s="7">
-        <f t="shared" ref="V68:V97" si="15">U68*0.01</f>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W68" s="7" t="b">
@@ -5787,35 +5886,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D69" s="4">
-        <v>460</v>
+        <v>560</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="12"/>
-        <v>457</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>558.5</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1.5</v>
       </c>
       <c r="G69">
         <v>5</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="4">
         <v>300</v>
       </c>
       <c r="I69">
-        <f t="shared" si="13"/>
-        <v>297</v>
+        <f t="shared" si="9"/>
+        <v>298.5</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -5827,14 +5926,17 @@
         <v>10</v>
       </c>
       <c r="M69">
-        <v>235.7</v>
+        <v>263.5</v>
+      </c>
+      <c r="N69">
+        <v>119.248</v>
       </c>
       <c r="O69">
         <v>5</v>
       </c>
       <c r="P69">
-        <f t="shared" si="14"/>
-        <v>4374.3</v>
+        <f t="shared" si="10"/>
+        <v>4346.5</v>
       </c>
       <c r="Q69">
         <v>40</v>
@@ -5852,7 +5954,7 @@
         <v>213.7</v>
       </c>
       <c r="V69" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W69" s="7" t="b">
@@ -5862,35 +5964,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D70" s="4">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="12"/>
-        <v>440</v>
-      </c>
-      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="F70" s="4">
         <v>0</v>
       </c>
       <c r="G70">
         <v>5</v>
       </c>
-      <c r="H70">
-        <v>300</v>
+      <c r="H70" s="4">
+        <v>200</v>
       </c>
       <c r="I70">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -5902,17 +6004,17 @@
         <v>10</v>
       </c>
       <c r="M70">
-        <v>288</v>
+        <v>250.8</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
         <v>5</v>
       </c>
       <c r="P70">
-        <f t="shared" si="14"/>
-        <v>4322</v>
+        <f t="shared" si="10"/>
+        <v>4359.2</v>
       </c>
       <c r="Q70">
         <v>40</v>
@@ -5930,7 +6032,7 @@
         <v>213.7</v>
       </c>
       <c r="V70" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W70" s="7" t="b">
@@ -5940,25 +6042,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D71" s="4">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="12"/>
-        <v>448</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>564</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -5967,8 +6069,8 @@
         <v>300</v>
       </c>
       <c r="I71">
-        <f t="shared" si="13"/>
-        <v>298</v>
+        <f t="shared" si="9"/>
+        <v>297</v>
       </c>
       <c r="J71">
         <v>5</v>
@@ -5980,17 +6082,17 @@
         <v>10</v>
       </c>
       <c r="M71">
-        <v>298.3</v>
+        <v>301.3</v>
       </c>
       <c r="N71">
-        <v>7.8070000000000004</v>
+        <v>20.044</v>
       </c>
       <c r="O71">
         <v>5</v>
       </c>
       <c r="P71">
-        <f t="shared" si="14"/>
-        <v>4311.7</v>
+        <f t="shared" si="10"/>
+        <v>4308.7</v>
       </c>
       <c r="Q71">
         <v>40</v>
@@ -6008,7 +6110,7 @@
         <v>213.7</v>
       </c>
       <c r="V71" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W71" s="7" t="b">
@@ -6018,25 +6120,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D72" s="4">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="12"/>
-        <v>448</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>567</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -6045,8 +6147,8 @@
         <v>300</v>
       </c>
       <c r="I72">
-        <f t="shared" si="13"/>
-        <v>298</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -6058,17 +6160,17 @@
         <v>10</v>
       </c>
       <c r="M72">
-        <v>319.60000000000002</v>
+        <v>298.89999999999998</v>
       </c>
       <c r="N72">
-        <v>18</v>
+        <v>101.407</v>
       </c>
       <c r="O72">
         <v>5</v>
       </c>
       <c r="P72">
-        <f t="shared" si="14"/>
-        <v>4290.3999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4311.1000000000004</v>
       </c>
       <c r="Q72">
         <v>40</v>
@@ -6086,7 +6188,7 @@
         <v>213.7</v>
       </c>
       <c r="V72" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W72" s="7" t="b">
@@ -6095,29 +6197,26 @@
       <c r="X72" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="Y72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D73" s="4">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="12"/>
-        <v>446</v>
-      </c>
-      <c r="F73">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>568.5</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1.5</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -6126,8 +6225,8 @@
         <v>300</v>
       </c>
       <c r="I73">
-        <f t="shared" si="13"/>
-        <v>296</v>
+        <f t="shared" si="9"/>
+        <v>298.5</v>
       </c>
       <c r="J73">
         <v>5</v>
@@ -6139,17 +6238,17 @@
         <v>10</v>
       </c>
       <c r="M73">
-        <v>301.7</v>
+        <v>284.7</v>
       </c>
       <c r="N73">
-        <v>29.838000000000001</v>
+        <v>109.76900000000001</v>
       </c>
       <c r="O73">
         <v>5</v>
       </c>
       <c r="P73">
-        <f t="shared" si="14"/>
-        <v>4308.3</v>
+        <f t="shared" si="10"/>
+        <v>4325.3</v>
       </c>
       <c r="Q73">
         <v>40</v>
@@ -6167,7 +6266,7 @@
         <v>213.7</v>
       </c>
       <c r="V73" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W73" s="7" t="b">
@@ -6177,25 +6276,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D74" s="4">
-        <v>453</v>
+        <v>575</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="12"/>
-        <v>447</v>
-      </c>
-      <c r="F74">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -6204,8 +6303,8 @@
         <v>300</v>
       </c>
       <c r="I74">
-        <f t="shared" si="13"/>
-        <v>294</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -6217,17 +6316,17 @@
         <v>10</v>
       </c>
       <c r="M74">
-        <v>306.39999999999998</v>
+        <v>318.10000000000002</v>
       </c>
       <c r="N74">
-        <v>39.840000000000003</v>
+        <v>33.128999999999998</v>
       </c>
       <c r="O74">
         <v>5</v>
       </c>
       <c r="P74">
-        <f t="shared" si="14"/>
-        <v>4303.6000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4291.8999999999996</v>
       </c>
       <c r="Q74">
         <v>40</v>
@@ -6245,7 +6344,7 @@
         <v>213.7</v>
       </c>
       <c r="V74" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W74" s="7" t="b">
@@ -6255,25 +6354,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D75" s="4">
-        <v>453</v>
+        <v>575</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="12"/>
-        <v>445</v>
-      </c>
-      <c r="F75">
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>572</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3</v>
       </c>
       <c r="G75">
         <v>5</v>
@@ -6282,8 +6381,8 @@
         <v>300</v>
       </c>
       <c r="I75">
-        <f t="shared" si="13"/>
-        <v>292</v>
+        <f t="shared" si="9"/>
+        <v>297</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -6295,17 +6394,17 @@
         <v>10</v>
       </c>
       <c r="M75">
-        <v>310.60000000000002</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="N75">
-        <v>49.5</v>
+        <v>148.22200000000001</v>
       </c>
       <c r="O75">
         <v>5</v>
       </c>
       <c r="P75">
-        <f t="shared" si="14"/>
-        <v>4299.3999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4309.1000000000004</v>
       </c>
       <c r="Q75">
         <v>40</v>
@@ -6323,7 +6422,7 @@
         <v>213.7</v>
       </c>
       <c r="V75" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W75" s="7" t="b">
@@ -6333,25 +6432,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D76" s="4">
-        <v>455</v>
+        <v>575</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="12"/>
-        <v>445</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -6360,8 +6459,8 @@
         <v>300</v>
       </c>
       <c r="I76">
-        <f t="shared" si="13"/>
-        <v>290</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="J76">
         <v>5</v>
@@ -6373,17 +6472,17 @@
         <v>10</v>
       </c>
       <c r="M76">
-        <v>308.10000000000002</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="N76">
-        <v>59.073</v>
+        <v>172.72200000000001</v>
       </c>
       <c r="O76">
         <v>5</v>
       </c>
       <c r="P76">
-        <f t="shared" si="14"/>
-        <v>4301.8999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4322.3999999999996</v>
       </c>
       <c r="Q76">
         <v>40</v>
@@ -6401,7 +6500,7 @@
         <v>213.7</v>
       </c>
       <c r="V76" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W76" s="7" t="b">
@@ -6411,35 +6510,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D77" s="4">
-        <v>455</v>
+        <v>575</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="12"/>
-        <v>443</v>
-      </c>
-      <c r="F77">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>5</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="4">
         <v>300</v>
       </c>
       <c r="I77">
-        <f t="shared" si="13"/>
-        <v>288</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -6451,17 +6550,17 @@
         <v>10</v>
       </c>
       <c r="M77">
-        <v>304.10000000000002</v>
+        <v>261.7</v>
       </c>
       <c r="N77">
-        <v>79.244</v>
+        <v>98.466999999999999</v>
       </c>
       <c r="O77">
         <v>5</v>
       </c>
       <c r="P77">
-        <f t="shared" si="14"/>
-        <v>4305.8999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4348.3</v>
       </c>
       <c r="Q77">
         <v>40</v>
@@ -6479,7 +6578,7 @@
         <v>213.7</v>
       </c>
       <c r="V77" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W77" s="7" t="b">
@@ -6489,35 +6588,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D78" s="4">
-        <v>462</v>
+        <v>577</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="12"/>
-        <v>448</v>
-      </c>
-      <c r="F78">
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>576</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
       </c>
       <c r="G78">
         <v>5</v>
       </c>
-      <c r="H78">
-        <v>300</v>
+      <c r="H78" s="4">
+        <v>200</v>
       </c>
       <c r="I78">
-        <f t="shared" si="13"/>
-        <v>286</v>
+        <f t="shared" si="9"/>
+        <v>199</v>
       </c>
       <c r="J78">
         <v>5</v>
@@ -6529,17 +6628,17 @@
         <v>10</v>
       </c>
       <c r="M78">
-        <v>313</v>
+        <v>280.8</v>
       </c>
       <c r="N78">
-        <v>85.844999999999999</v>
+        <v>23.297000000000001</v>
       </c>
       <c r="O78">
         <v>5</v>
       </c>
       <c r="P78">
-        <f t="shared" si="14"/>
-        <v>4297</v>
+        <f t="shared" si="10"/>
+        <v>4329.2</v>
       </c>
       <c r="Q78">
         <v>40</v>
@@ -6557,7 +6656,7 @@
         <v>213.7</v>
       </c>
       <c r="V78" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W78" s="7" t="b">
@@ -6567,35 +6666,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D79" s="4">
-        <v>470</v>
+        <v>577</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="12"/>
-        <v>454</v>
-      </c>
-      <c r="F79">
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2</v>
       </c>
       <c r="G79">
         <v>5</v>
       </c>
-      <c r="H79">
-        <v>200</v>
+      <c r="H79" s="4">
+        <v>300</v>
       </c>
       <c r="I79">
-        <f t="shared" si="13"/>
-        <v>184</v>
+        <f t="shared" si="9"/>
+        <v>298</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -6607,73 +6706,73 @@
         <v>10</v>
       </c>
       <c r="M79">
-        <v>275.7</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="N79">
+        <v>113.235</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="10"/>
+        <v>4322.6000000000004</v>
+      </c>
+      <c r="Q79">
+        <v>40</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>20</v>
+      </c>
+      <c r="T79">
+        <v>1.27</v>
+      </c>
+      <c r="U79" s="7">
+        <v>213.7</v>
+      </c>
+      <c r="V79" s="7">
+        <f t="shared" si="11"/>
+        <v>2.137</v>
+      </c>
+      <c r="W79" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X79" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80">
         <v>6</v>
       </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="14"/>
-        <v>4334.3</v>
-      </c>
-      <c r="Q79">
-        <v>40</v>
-      </c>
-      <c r="R79">
-        <v>2</v>
-      </c>
-      <c r="S79">
-        <v>20</v>
-      </c>
-      <c r="T79">
-        <v>1.27</v>
-      </c>
-      <c r="U79" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V79" s="7">
-        <f t="shared" si="15"/>
-        <v>2.137</v>
-      </c>
-      <c r="W79" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X79" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
       <c r="C80">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D80" s="4">
-        <v>470</v>
+        <v>577</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="12"/>
-        <v>452</v>
-      </c>
-      <c r="F80">
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>574</v>
+      </c>
+      <c r="F80" s="4">
+        <v>3</v>
       </c>
       <c r="G80">
         <v>5</v>
       </c>
-      <c r="H80">
-        <v>200</v>
+      <c r="H80" s="4">
+        <v>400</v>
       </c>
       <c r="I80">
-        <f t="shared" si="13"/>
-        <v>182</v>
+        <f t="shared" si="9"/>
+        <v>397</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -6685,17 +6784,17 @@
         <v>10</v>
       </c>
       <c r="M80">
-        <v>272.5</v>
+        <v>287.89999999999998</v>
       </c>
       <c r="N80">
-        <v>19</v>
+        <v>139.66499999999999</v>
       </c>
       <c r="O80">
         <v>5</v>
       </c>
       <c r="P80">
-        <f t="shared" si="14"/>
-        <v>4337.5</v>
+        <f t="shared" si="10"/>
+        <v>4322.1000000000004</v>
       </c>
       <c r="Q80">
         <v>40</v>
@@ -6713,7 +6812,7 @@
         <v>213.7</v>
       </c>
       <c r="V80" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W80" s="7" t="b">
@@ -6725,33 +6824,33 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81" s="4">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="12"/>
-        <v>455</v>
-      </c>
-      <c r="F81">
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>573</v>
+      </c>
+      <c r="F81" s="4">
+        <v>4</v>
       </c>
       <c r="G81">
         <v>5</v>
       </c>
-      <c r="H81">
-        <v>200</v>
+      <c r="H81" s="4">
+        <v>400</v>
       </c>
       <c r="I81">
-        <f t="shared" si="13"/>
-        <v>180</v>
+        <f t="shared" si="9"/>
+        <v>396</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -6763,17 +6862,17 @@
         <v>10</v>
       </c>
       <c r="M81">
-        <v>278.3</v>
+        <v>271.5</v>
       </c>
       <c r="N81">
-        <v>28.974</v>
+        <v>159.245</v>
       </c>
       <c r="O81">
         <v>5</v>
       </c>
       <c r="P81">
-        <f t="shared" si="14"/>
-        <v>4331.7</v>
+        <f t="shared" si="10"/>
+        <v>4338.5</v>
       </c>
       <c r="Q81">
         <v>40</v>
@@ -6791,7 +6890,7 @@
         <v>213.7</v>
       </c>
       <c r="V81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W81" s="7" t="b">
@@ -6803,20 +6902,20 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
       <c r="D82" s="4">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="12"/>
-        <v>575</v>
+        <f t="shared" si="8"/>
+        <v>580</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -6824,12 +6923,12 @@
       <c r="G82">
         <v>5</v>
       </c>
-      <c r="H82">
-        <v>300</v>
+      <c r="H82" s="4">
+        <v>200</v>
       </c>
       <c r="I82">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="J82">
         <v>5</v>
@@ -6841,17 +6940,17 @@
         <v>10</v>
       </c>
       <c r="M82">
-        <v>318.10000000000002</v>
+        <v>251.4</v>
       </c>
       <c r="N82">
-        <v>33.128999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="O82">
         <v>5</v>
       </c>
       <c r="P82">
-        <f t="shared" si="14"/>
-        <v>4291.8999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4358.6000000000004</v>
       </c>
       <c r="Q82">
         <v>40</v>
@@ -6869,7 +6968,7 @@
         <v>213.7</v>
       </c>
       <c r="V82" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W82" s="7" t="b">
@@ -6881,33 +6980,30 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D83" s="4">
-        <v>555</v>
+        <v>685</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="12"/>
-        <v>553.5</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1.5</v>
+        <f t="shared" si="8"/>
+        <v>678</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
       </c>
       <c r="G83">
         <v>5</v>
       </c>
-      <c r="H83">
-        <v>300</v>
-      </c>
       <c r="I83">
-        <f t="shared" si="13"/>
-        <v>298.5</v>
+        <f t="shared" si="9"/>
+        <v>-7</v>
       </c>
       <c r="J83">
         <v>5</v>
@@ -6918,18 +7014,12 @@
       <c r="L83">
         <v>10</v>
       </c>
-      <c r="M83">
-        <v>289.5</v>
-      </c>
-      <c r="N83">
-        <v>2.403</v>
-      </c>
       <c r="O83">
         <v>5</v>
       </c>
       <c r="P83">
-        <f t="shared" si="14"/>
-        <v>4320.5</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q83">
         <v>40</v>
@@ -6947,45 +7037,42 @@
         <v>213.7</v>
       </c>
       <c r="V83" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W83" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X83" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D84" s="4">
-        <v>567</v>
+        <v>690</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="12"/>
-        <v>564</v>
-      </c>
-      <c r="F84" s="4">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>690</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
       </c>
       <c r="G84">
         <v>5</v>
       </c>
-      <c r="H84">
-        <v>300</v>
-      </c>
       <c r="I84">
-        <f t="shared" si="13"/>
-        <v>297</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -6996,18 +7083,12 @@
       <c r="L84">
         <v>10</v>
       </c>
-      <c r="M84">
-        <v>301.3</v>
-      </c>
-      <c r="N84">
-        <v>20.044</v>
-      </c>
       <c r="O84">
         <v>5</v>
       </c>
       <c r="P84">
-        <f t="shared" si="14"/>
-        <v>4308.7</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q84">
         <v>40</v>
@@ -7025,45 +7106,42 @@
         <v>213.7</v>
       </c>
       <c r="V84" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W84" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X84" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
         <v>4</v>
       </c>
-      <c r="C85">
-        <v>21</v>
-      </c>
       <c r="D85" s="4">
-        <v>550</v>
+        <v>695</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="12"/>
-        <v>550</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>689.75</v>
+      </c>
+      <c r="F85">
+        <v>5.25</v>
       </c>
       <c r="G85">
         <v>5</v>
       </c>
-      <c r="H85">
-        <v>300</v>
-      </c>
       <c r="I85">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>-5.25</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -7074,18 +7152,12 @@
       <c r="L85">
         <v>10</v>
       </c>
-      <c r="M85">
-        <v>303.89999999999998</v>
-      </c>
-      <c r="N85">
-        <v>65.873999999999995</v>
-      </c>
       <c r="O85">
         <v>5</v>
       </c>
       <c r="P85">
-        <f t="shared" si="14"/>
-        <v>4306.1000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q85">
         <v>40</v>
@@ -7103,45 +7175,42 @@
         <v>213.7</v>
       </c>
       <c r="V85" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W85" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X85" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D86" s="4">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="12"/>
-        <v>567</v>
-      </c>
-      <c r="F86" s="4">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+      <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
         <v>5</v>
       </c>
-      <c r="H86">
-        <v>300</v>
-      </c>
       <c r="I86">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -7152,18 +7221,12 @@
       <c r="L86">
         <v>10</v>
       </c>
-      <c r="M86">
-        <v>298.89999999999998</v>
-      </c>
-      <c r="N86">
-        <v>101.407</v>
-      </c>
       <c r="O86">
         <v>5</v>
       </c>
       <c r="P86">
-        <f t="shared" si="14"/>
-        <v>4311.1000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q86">
         <v>40</v>
@@ -7181,45 +7244,42 @@
         <v>213.7</v>
       </c>
       <c r="V86" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W86" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X86" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D87" s="4">
-        <v>570</v>
+        <v>700</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="12"/>
-        <v>568.5</v>
-      </c>
-      <c r="F87" s="4">
-        <v>1.5</v>
+        <f t="shared" si="8"/>
+        <v>694.75</v>
+      </c>
+      <c r="F87">
+        <v>5.25</v>
       </c>
       <c r="G87">
         <v>5</v>
       </c>
-      <c r="H87">
-        <v>300</v>
-      </c>
       <c r="I87">
-        <f t="shared" si="13"/>
-        <v>298.5</v>
+        <f t="shared" si="9"/>
+        <v>-5.25</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -7230,18 +7290,12 @@
       <c r="L87">
         <v>10</v>
       </c>
-      <c r="M87">
-        <v>284.7</v>
-      </c>
-      <c r="N87">
-        <v>109.76900000000001</v>
-      </c>
       <c r="O87">
         <v>5</v>
       </c>
       <c r="P87">
-        <f t="shared" si="14"/>
-        <v>4325.3</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q87">
         <v>40</v>
@@ -7259,45 +7313,45 @@
         <v>213.7</v>
       </c>
       <c r="V87" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W87" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X87" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D88" s="4">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="12"/>
-        <v>572</v>
-      </c>
-      <c r="F88" s="4">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>693</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
       </c>
       <c r="G88">
         <v>5</v>
       </c>
       <c r="H88">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I88">
-        <f t="shared" si="13"/>
-        <v>297</v>
+        <f t="shared" si="9"/>
+        <v>493</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -7309,17 +7363,17 @@
         <v>10</v>
       </c>
       <c r="M88">
-        <v>300.89999999999998</v>
+        <v>403</v>
       </c>
       <c r="N88">
-        <v>148.22200000000001</v>
+        <v>38.451000000000001</v>
       </c>
       <c r="O88">
         <v>5</v>
       </c>
       <c r="P88">
-        <f t="shared" si="14"/>
-        <v>4309.1000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4207</v>
       </c>
       <c r="Q88">
         <v>40</v>
@@ -7337,7 +7391,7 @@
         <v>213.7</v>
       </c>
       <c r="V88" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W88" s="7" t="b">
@@ -7349,33 +7403,33 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D89" s="4">
-        <v>575</v>
+        <v>700</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="12"/>
-        <v>575</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>693</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
       </c>
       <c r="G89">
         <v>5</v>
       </c>
       <c r="H89">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I89">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>493</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -7387,17 +7441,17 @@
         <v>10</v>
       </c>
       <c r="M89">
-        <v>287.60000000000002</v>
+        <v>369</v>
       </c>
       <c r="N89">
-        <v>172.72200000000001</v>
+        <v>29.684000000000001</v>
       </c>
       <c r="O89">
         <v>5</v>
       </c>
       <c r="P89">
-        <f t="shared" si="14"/>
-        <v>4322.3999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4241</v>
       </c>
       <c r="Q89">
         <v>40</v>
@@ -7415,45 +7469,42 @@
         <v>213.7</v>
       </c>
       <c r="V89" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W89" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X89" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D90" s="4">
-        <v>565</v>
+        <v>705</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="12"/>
-        <v>565</v>
-      </c>
-      <c r="F90" s="4">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>703.25</v>
+      </c>
+      <c r="F90">
+        <v>1.75</v>
       </c>
       <c r="G90">
         <v>5</v>
       </c>
-      <c r="H90" s="4">
-        <v>200</v>
-      </c>
       <c r="I90">
-        <f t="shared" si="13"/>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>-1.75</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -7464,18 +7515,12 @@
       <c r="L90">
         <v>10</v>
       </c>
-      <c r="M90">
-        <v>250.8</v>
-      </c>
-      <c r="N90">
-        <v>1.75</v>
-      </c>
       <c r="O90">
         <v>5</v>
       </c>
       <c r="P90">
-        <f t="shared" si="14"/>
-        <v>4359.2</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q90">
         <v>40</v>
@@ -7493,45 +7538,42 @@
         <v>213.7</v>
       </c>
       <c r="V90" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W90" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X90" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D91" s="4">
-        <v>560</v>
+        <v>705</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="12"/>
-        <v>558.5</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.5</v>
+        <f t="shared" si="8"/>
+        <v>705</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91">
         <v>5</v>
       </c>
-      <c r="H91" s="4">
-        <v>300</v>
-      </c>
       <c r="I91">
-        <f t="shared" si="13"/>
-        <v>298.5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>5</v>
@@ -7542,18 +7584,12 @@
       <c r="L91">
         <v>10</v>
       </c>
-      <c r="M91">
-        <v>263.5</v>
-      </c>
-      <c r="N91">
-        <v>119.248</v>
-      </c>
       <c r="O91">
         <v>5</v>
       </c>
       <c r="P91">
-        <f t="shared" si="14"/>
-        <v>4346.5</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q91">
         <v>40</v>
@@ -7571,45 +7607,42 @@
         <v>213.7</v>
       </c>
       <c r="V91" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W91" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X91" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D92" s="4">
-        <v>575</v>
+        <v>710</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="12"/>
-        <v>575</v>
-      </c>
-      <c r="F92" s="4">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>706.5</v>
+      </c>
+      <c r="F92">
+        <v>3.5</v>
       </c>
       <c r="G92">
         <v>5</v>
       </c>
-      <c r="H92" s="4">
-        <v>300</v>
-      </c>
       <c r="I92">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>-3.5</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -7620,18 +7653,12 @@
       <c r="L92">
         <v>10</v>
       </c>
-      <c r="M92">
-        <v>261.7</v>
-      </c>
-      <c r="N92">
-        <v>98.466999999999999</v>
-      </c>
       <c r="O92">
         <v>5</v>
       </c>
       <c r="P92">
-        <f t="shared" si="14"/>
-        <v>4348.3</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q92">
         <v>40</v>
@@ -7649,45 +7676,45 @@
         <v>213.7</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W92" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X92" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D93" s="4">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="12"/>
-        <v>580</v>
-      </c>
-      <c r="F93" s="4">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>704.75</v>
+      </c>
+      <c r="F93">
+        <v>5.25</v>
       </c>
       <c r="G93">
         <v>5</v>
       </c>
-      <c r="H93" s="4">
-        <v>200</v>
+      <c r="H93">
+        <v>500</v>
       </c>
       <c r="I93">
-        <f t="shared" si="13"/>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>494.75</v>
       </c>
       <c r="J93">
         <v>5</v>
@@ -7699,17 +7726,14 @@
         <v>10</v>
       </c>
       <c r="M93">
-        <v>251.4</v>
-      </c>
-      <c r="N93">
-        <v>1.85</v>
+        <v>326</v>
       </c>
       <c r="O93">
         <v>5</v>
       </c>
       <c r="P93">
-        <f t="shared" si="14"/>
-        <v>4358.6000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4284</v>
       </c>
       <c r="Q93">
         <v>40</v>
@@ -7727,7 +7751,7 @@
         <v>213.7</v>
       </c>
       <c r="V93" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W93" s="7" t="b">
@@ -7739,33 +7763,30 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4">
-        <v>577</v>
+        <v>720</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="12"/>
-        <v>576</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>718.25</v>
+      </c>
+      <c r="F94">
+        <v>1.75</v>
       </c>
       <c r="G94">
         <v>5</v>
       </c>
-      <c r="H94" s="4">
-        <v>200</v>
-      </c>
       <c r="I94">
-        <f t="shared" si="13"/>
-        <v>199</v>
+        <f t="shared" si="9"/>
+        <v>-1.75</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -7776,18 +7797,12 @@
       <c r="L94">
         <v>10</v>
       </c>
-      <c r="M94">
-        <v>280.8</v>
-      </c>
-      <c r="N94">
-        <v>23.297000000000001</v>
-      </c>
       <c r="O94">
         <v>5</v>
       </c>
       <c r="P94">
-        <f t="shared" si="14"/>
-        <v>4329.2</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q94">
         <v>40</v>
@@ -7805,45 +7820,42 @@
         <v>213.7</v>
       </c>
       <c r="V94" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W94" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X94" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D95" s="4">
-        <v>577</v>
+        <v>720</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="12"/>
-        <v>575</v>
-      </c>
-      <c r="F95" s="4">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>716.5</v>
+      </c>
+      <c r="F95">
+        <v>3.5</v>
       </c>
       <c r="G95">
         <v>5</v>
       </c>
-      <c r="H95" s="4">
-        <v>300</v>
-      </c>
       <c r="I95">
-        <f t="shared" si="13"/>
-        <v>298</v>
+        <f t="shared" si="9"/>
+        <v>-3.5</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -7854,18 +7866,12 @@
       <c r="L95">
         <v>10</v>
       </c>
-      <c r="M95">
-        <v>287.39999999999998</v>
-      </c>
-      <c r="N95">
-        <v>113.235</v>
-      </c>
       <c r="O95">
         <v>5</v>
       </c>
       <c r="P95">
-        <f t="shared" si="14"/>
-        <v>4322.6000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4610</v>
       </c>
       <c r="Q95">
         <v>40</v>
@@ -7883,45 +7889,45 @@
         <v>213.7</v>
       </c>
       <c r="V95" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W95" s="7" t="b">
         <v>0</v>
       </c>
       <c r="X95" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D96" s="4">
-        <v>577</v>
+        <v>720</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="12"/>
-        <v>574</v>
-      </c>
-      <c r="F96" s="4">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>716.5</v>
+      </c>
+      <c r="F96">
+        <v>3.5</v>
       </c>
       <c r="G96">
         <v>5</v>
       </c>
-      <c r="H96" s="4">
-        <v>400</v>
+      <c r="H96">
+        <v>500</v>
       </c>
       <c r="I96">
-        <f t="shared" si="13"/>
-        <v>397</v>
+        <f t="shared" si="9"/>
+        <v>496.5</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -7933,17 +7939,14 @@
         <v>10</v>
       </c>
       <c r="M96">
-        <v>287.89999999999998</v>
-      </c>
-      <c r="N96">
-        <v>139.66499999999999</v>
+        <v>321</v>
       </c>
       <c r="O96">
         <v>5</v>
       </c>
       <c r="P96">
-        <f t="shared" si="14"/>
-        <v>4322.1000000000004</v>
+        <f t="shared" si="10"/>
+        <v>4289</v>
       </c>
       <c r="Q96">
         <v>40</v>
@@ -7961,7 +7964,7 @@
         <v>213.7</v>
       </c>
       <c r="V96" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W96" s="7" t="b">
@@ -7973,33 +7976,33 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D97" s="4">
-        <v>577</v>
+        <v>720</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="12"/>
-        <v>573</v>
-      </c>
-      <c r="F97" s="4">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>718.25</v>
+      </c>
+      <c r="F97">
+        <v>1.75</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
-      <c r="H97" s="4">
-        <v>400</v>
+      <c r="H97">
+        <v>500</v>
       </c>
       <c r="I97">
-        <f t="shared" si="13"/>
-        <v>396</v>
+        <f t="shared" si="9"/>
+        <v>498.25</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -8011,17 +8014,14 @@
         <v>10</v>
       </c>
       <c r="M97">
-        <v>271.5</v>
-      </c>
-      <c r="N97">
-        <v>159.245</v>
+        <v>339</v>
       </c>
       <c r="O97">
         <v>5</v>
       </c>
       <c r="P97">
-        <f t="shared" si="14"/>
-        <v>4338.5</v>
+        <f t="shared" si="10"/>
+        <v>4271</v>
       </c>
       <c r="Q97">
         <v>40</v>
@@ -8039,7 +8039,7 @@
         <v>213.7</v>
       </c>
       <c r="V97" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.137</v>
       </c>
       <c r="W97" s="7" t="b">
@@ -8052,7 +8052,7 @@
   </sheetData>
   <autoFilter ref="A2:Z97" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z97">
-      <sortCondition ref="A2:A97"/>
+      <sortCondition ref="K2:K97"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A52 A72:A84 A86:A1048576 A54:A70">

--- a/Data/Metadata/DD_test_conditions.xlsx
+++ b/Data/Metadata/DD_test_conditions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DACFC73D-75F2-4675-96F5-C70F82A18A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243BF677-A80C-4B53-B3B1-9521F9B22247}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{DACFC73D-75F2-4675-96F5-C70F82A18A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B74BFD5C-2918-4419-851D-596447E6ACC8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11790" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$Z$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AA$97</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="47">
   <si>
     <t>sample_num</t>
   </si>
@@ -176,6 +176,9 @@
   <si>
     <t>fit whole line</t>
   </si>
+  <si>
+    <t>w_contact_dis_from_post_top</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -276,106 +279,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -723,42 +635,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z97"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.75" customWidth="1"/>
-    <col min="15" max="15" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.625" customWidth="1"/>
-    <col min="17" max="17" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="20.5" customWidth="1"/>
-    <col min="25" max="25" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
+    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -786,59 +704,62 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -851,7 +772,9 @@
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
@@ -864,9 +787,7 @@
       <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
@@ -877,10 +798,10 @@
         <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>28</v>
@@ -898,19 +819,22 @@
         <v>28</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="X2" s="3"/>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
@@ -940,52 +864,56 @@
         <v>294</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <f>E3-I3</f>
+        <v>135</v>
       </c>
       <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
         <v>2520</v>
       </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
       <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
         <v>225</v>
       </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
       <c r="P3">
-        <f t="shared" ref="P3:P34" si="2">K3-M3</f>
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q34" si="2">L3-N3</f>
         <v>2295</v>
       </c>
-      <c r="Q3">
-        <v>40</v>
-      </c>
       <c r="R3">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1.27</v>
-      </c>
-      <c r="U3" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V3" s="7">
-        <f t="shared" ref="V3:V34" si="3">U3*0.01</f>
-        <v>2.137</v>
-      </c>
-      <c r="W3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>1.27</v>
+      </c>
+      <c r="V3">
+        <v>213.7</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W34" si="3">V3*0.01</f>
+        <v>2.137</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4">
@@ -1011,56 +939,60 @@
         <v>300</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f>H4-F4</f>
         <v>291</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <f t="shared" ref="J4:J67" si="4">E4-I4</f>
+        <v>135</v>
       </c>
       <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
         <v>2520</v>
       </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
       <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
         <v>240</v>
       </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
       <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="2"/>
         <v>2280</v>
       </c>
-      <c r="Q4">
-        <v>40</v>
-      </c>
       <c r="R4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1.27</v>
-      </c>
-      <c r="U4" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V4" s="7">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>1.27</v>
+      </c>
+      <c r="V4">
+        <v>213.7</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5">
@@ -1090,52 +1022,56 @@
         <v>285</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>2520</v>
       </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
       <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
         <v>258</v>
       </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
       <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="2"/>
         <v>2262</v>
       </c>
-      <c r="Q5">
-        <v>40</v>
-      </c>
       <c r="R5">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.27</v>
-      </c>
-      <c r="U5" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V5" s="7">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>1.27</v>
+      </c>
+      <c r="V5">
+        <v>213.7</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6">
@@ -1165,52 +1101,56 @@
         <v>282</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>2520</v>
       </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
       <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
         <v>281</v>
       </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
       <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="2"/>
         <v>2239</v>
       </c>
-      <c r="Q6">
-        <v>40</v>
-      </c>
       <c r="R6">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1.27</v>
-      </c>
-      <c r="U6" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V6" s="7">
+        <v>20</v>
+      </c>
+      <c r="U6">
+        <v>1.27</v>
+      </c>
+      <c r="V6">
+        <v>213.7</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7">
@@ -1240,52 +1180,56 @@
         <v>279</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
         <v>2520</v>
       </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
       <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
         <v>269</v>
       </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
       <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="2"/>
         <v>2251</v>
       </c>
-      <c r="Q7">
-        <v>40</v>
-      </c>
       <c r="R7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1.27</v>
-      </c>
-      <c r="U7" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V7" s="7">
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <v>1.27</v>
+      </c>
+      <c r="V7">
+        <v>213.7</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8">
@@ -1315,130 +1259,135 @@
         <v>276</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>2520</v>
       </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
       <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
         <v>246</v>
       </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
       <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="2"/>
         <v>2274</v>
       </c>
-      <c r="Q8">
-        <v>40</v>
-      </c>
       <c r="R8">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>1.27</v>
-      </c>
-      <c r="U8" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V8" s="7">
+        <v>20</v>
+      </c>
+      <c r="U8">
+        <v>1.27</v>
+      </c>
+      <c r="V8">
+        <v>213.7</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="4">
         <v>455</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>5</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J9" s="13">
-        <v>5</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>2520</v>
       </c>
-      <c r="L9" s="13">
-        <v>10</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
         <v>234</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13">
-        <v>5</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="2"/>
         <v>2286</v>
       </c>
-      <c r="Q9" s="13">
-        <v>40</v>
-      </c>
-      <c r="R9" s="13">
-        <v>2</v>
-      </c>
-      <c r="S9" s="13">
-        <v>20</v>
-      </c>
-      <c r="T9" s="13">
-        <v>1.27</v>
-      </c>
-      <c r="U9" s="15">
-        <v>213.7</v>
-      </c>
-      <c r="V9" s="15">
+      <c r="R9">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <v>1.27</v>
+      </c>
+      <c r="V9">
+        <v>213.7</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10">
@@ -1468,52 +1417,56 @@
         <v>297</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>155</v>
       </c>
       <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
         <v>2520</v>
       </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
       <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
         <v>215</v>
       </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
       <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="2"/>
         <v>2305</v>
       </c>
-      <c r="Q10">
-        <v>40</v>
-      </c>
       <c r="R10">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>1.27</v>
-      </c>
-      <c r="U10" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V10" s="7">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>1.27</v>
+      </c>
+      <c r="V10">
+        <v>213.7</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11">
@@ -1543,52 +1496,56 @@
         <v>500</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>205</v>
       </c>
       <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
         <v>2520</v>
       </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
       <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
         <v>203</v>
       </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
       <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="2"/>
         <v>2317</v>
       </c>
-      <c r="Q11">
-        <v>40</v>
-      </c>
       <c r="R11">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>1.27</v>
-      </c>
-      <c r="U11" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V11" s="7">
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <v>1.27</v>
+      </c>
+      <c r="V11">
+        <v>213.7</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
@@ -1618,52 +1575,56 @@
         <v>497.5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>207</v>
       </c>
       <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
         <v>2520</v>
       </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
       <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
         <v>220</v>
       </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
       <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="Q12">
-        <v>40</v>
-      </c>
       <c r="R12">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>1.27</v>
-      </c>
-      <c r="U12" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V12" s="7">
+        <v>20</v>
+      </c>
+      <c r="U12">
+        <v>1.27</v>
+      </c>
+      <c r="V12">
+        <v>213.7</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13">
@@ -1693,55 +1654,59 @@
         <v>495</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>210</v>
       </c>
       <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
         <v>2520</v>
       </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
       <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
         <v>246</v>
       </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
       <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="2"/>
         <v>2274</v>
       </c>
-      <c r="Q13">
-        <v>40</v>
-      </c>
       <c r="R13">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>1.27</v>
-      </c>
-      <c r="U13" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V13" s="7">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>1.27</v>
+      </c>
+      <c r="V13">
+        <v>213.7</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14">
@@ -1771,52 +1736,56 @@
         <v>492.5</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>210</v>
       </c>
       <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
         <v>2520</v>
       </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
       <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
         <v>235</v>
       </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
       <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="2"/>
         <v>2285</v>
       </c>
-      <c r="Q14">
-        <v>40</v>
-      </c>
       <c r="R14">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>1.27</v>
-      </c>
-      <c r="U14" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V14" s="7">
+        <v>20</v>
+      </c>
+      <c r="U14">
+        <v>1.27</v>
+      </c>
+      <c r="V14">
+        <v>213.7</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15">
@@ -1846,52 +1815,56 @@
         <v>490</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>210</v>
       </c>
       <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
         <v>2520</v>
       </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
       <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
         <v>221</v>
       </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
       <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="2"/>
         <v>2299</v>
       </c>
-      <c r="Q15">
-        <v>40</v>
-      </c>
       <c r="R15">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S15">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>1.27</v>
-      </c>
-      <c r="U15" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V15" s="7">
+        <v>20</v>
+      </c>
+      <c r="U15">
+        <v>1.27</v>
+      </c>
+      <c r="V15">
+        <v>213.7</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16">
@@ -1921,52 +1894,56 @@
         <v>240</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
         <v>2788</v>
       </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
       <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
         <v>205</v>
       </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
       <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="2"/>
         <v>2583</v>
       </c>
-      <c r="Q16">
-        <v>40</v>
-      </c>
       <c r="R16">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>1.27</v>
-      </c>
-      <c r="U16" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V16" s="7">
+        <v>20</v>
+      </c>
+      <c r="U16">
+        <v>1.27</v>
+      </c>
+      <c r="V16">
+        <v>213.7</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X16" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17">
@@ -1996,52 +1973,56 @@
         <v>250</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
         <v>2788</v>
       </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
       <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
         <v>151</v>
       </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
       <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="2"/>
         <v>2637</v>
       </c>
-      <c r="Q17">
-        <v>40</v>
-      </c>
       <c r="R17">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S17">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>1.27</v>
-      </c>
-      <c r="U17" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V17" s="7">
+        <v>20</v>
+      </c>
+      <c r="U17">
+        <v>1.27</v>
+      </c>
+      <c r="V17">
+        <v>213.7</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X17" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18">
@@ -2070,50 +2051,50 @@
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
       <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
         <v>2788</v>
       </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
+      <c r="M18">
+        <v>10</v>
       </c>
       <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q18">
-        <v>40</v>
-      </c>
       <c r="R18">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S18">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>1.27</v>
-      </c>
-      <c r="U18" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V18" s="7">
+        <v>20</v>
+      </c>
+      <c r="U18">
+        <v>1.27</v>
+      </c>
+      <c r="V18">
+        <v>213.7</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19">
@@ -2143,52 +2124,56 @@
         <v>246.66666666666666</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>50.000000000000028</v>
       </c>
       <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
         <v>2788</v>
       </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
       <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
         <v>244</v>
       </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
       <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="2"/>
         <v>2544</v>
       </c>
-      <c r="Q19">
-        <v>40</v>
-      </c>
       <c r="R19">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S19">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>1.27</v>
-      </c>
-      <c r="U19" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V19" s="7">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>1.27</v>
+      </c>
+      <c r="V19">
+        <v>213.7</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X19" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
@@ -2218,52 +2203,56 @@
         <v>243.33333333333334</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>49.999999999999972</v>
       </c>
       <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
         <v>2788</v>
       </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
       <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
         <v>247</v>
       </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
       <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="2"/>
         <v>2541</v>
       </c>
-      <c r="Q20">
-        <v>40</v>
-      </c>
       <c r="R20">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>1.27</v>
-      </c>
-      <c r="U20" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V20" s="7">
+        <v>20</v>
+      </c>
+      <c r="U20">
+        <v>1.27</v>
+      </c>
+      <c r="V20">
+        <v>213.7</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X20" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
@@ -2292,50 +2281,50 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
       <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
         <v>2788</v>
       </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
+      <c r="M21">
+        <v>10</v>
       </c>
       <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q21">
-        <v>40</v>
-      </c>
       <c r="R21">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1.27</v>
-      </c>
-      <c r="U21" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V21" s="7">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>1.27</v>
+      </c>
+      <c r="V21">
+        <v>213.7</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X21" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="X21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
@@ -2365,52 +2354,56 @@
         <v>250</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
         <v>2788</v>
       </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
       <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
         <v>253</v>
       </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
       <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="2"/>
         <v>2535</v>
       </c>
-      <c r="Q22">
-        <v>40</v>
-      </c>
       <c r="R22">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S22">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.27</v>
-      </c>
-      <c r="U22" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V22" s="7">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>1.27</v>
+      </c>
+      <c r="V22">
+        <v>213.7</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
@@ -2439,50 +2432,50 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
       <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
         <v>2788</v>
       </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="O23">
-        <v>5</v>
+      <c r="M23">
+        <v>10</v>
       </c>
       <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q23">
-        <v>40</v>
-      </c>
       <c r="R23">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S23">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>1.27</v>
-      </c>
-      <c r="U23" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V23" s="7">
+        <v>20</v>
+      </c>
+      <c r="U23">
+        <v>1.27</v>
+      </c>
+      <c r="V23">
+        <v>213.7</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24">
@@ -2512,52 +2505,56 @@
         <v>348.33333333333331</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
         <v>2788</v>
       </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
       <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
         <v>295</v>
       </c>
-      <c r="O24">
-        <v>5</v>
-      </c>
       <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="2"/>
         <v>2493</v>
       </c>
-      <c r="Q24">
-        <v>40</v>
-      </c>
       <c r="R24">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S24">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1.27</v>
-      </c>
-      <c r="U24" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V24" s="7">
+        <v>20</v>
+      </c>
+      <c r="U24">
+        <v>1.27</v>
+      </c>
+      <c r="V24">
+        <v>213.7</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25">
@@ -2587,52 +2584,56 @@
         <v>347.77777777777777</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
         <v>2788</v>
       </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
       <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
         <v>236</v>
       </c>
-      <c r="O25">
-        <v>5</v>
-      </c>
       <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="2"/>
         <v>2552</v>
       </c>
-      <c r="Q25">
-        <v>40</v>
-      </c>
       <c r="R25">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S25">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>1.27</v>
-      </c>
-      <c r="U25" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V25" s="7">
+        <v>20</v>
+      </c>
+      <c r="U25">
+        <v>1.27</v>
+      </c>
+      <c r="V25">
+        <v>213.7</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
@@ -2661,50 +2662,50 @@
         <f t="shared" si="1"/>
         <v>347.22222222222223</v>
       </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
       <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
         <v>2788</v>
       </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
+      <c r="M26">
+        <v>10</v>
       </c>
       <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q26">
-        <v>40</v>
-      </c>
       <c r="R26">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S26">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>1.27</v>
-      </c>
-      <c r="U26" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V26" s="7">
+        <v>20</v>
+      </c>
+      <c r="U26">
+        <v>1.27</v>
+      </c>
+      <c r="V26">
+        <v>213.7</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
       <c r="B27">
@@ -2733,50 +2734,50 @@
         <f t="shared" si="1"/>
         <v>346.66666666666669</v>
       </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
       <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
         <v>2788</v>
       </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="O27">
-        <v>5</v>
+      <c r="M27">
+        <v>10</v>
       </c>
       <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q27">
-        <v>40</v>
-      </c>
       <c r="R27">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S27">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.27</v>
-      </c>
-      <c r="U27" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V27" s="7">
+        <v>20</v>
+      </c>
+      <c r="U27">
+        <v>1.27</v>
+      </c>
+      <c r="V27">
+        <v>213.7</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W27" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28">
@@ -2805,50 +2806,50 @@
         <f t="shared" si="1"/>
         <v>346.11111111111109</v>
       </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
       <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
         <v>2788</v>
       </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="O28">
-        <v>5</v>
+      <c r="M28">
+        <v>10</v>
       </c>
       <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q28">
-        <v>40</v>
-      </c>
       <c r="R28">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S28">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.27</v>
-      </c>
-      <c r="U28" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V28" s="7">
+        <v>20</v>
+      </c>
+      <c r="U28">
+        <v>1.27</v>
+      </c>
+      <c r="V28">
+        <v>213.7</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="X28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29">
@@ -2877,50 +2878,50 @@
         <f t="shared" si="1"/>
         <v>345.55555555555554</v>
       </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
       <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
         <v>2788</v>
       </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="O29">
-        <v>5</v>
+      <c r="M29">
+        <v>10</v>
       </c>
       <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="2"/>
         <v>2788</v>
       </c>
-      <c r="Q29">
-        <v>40</v>
-      </c>
       <c r="R29">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S29">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>1.27</v>
-      </c>
-      <c r="U29" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V29" s="7">
+        <v>20</v>
+      </c>
+      <c r="U29">
+        <v>1.27</v>
+      </c>
+      <c r="V29">
+        <v>213.7</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="X29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30">
@@ -2950,52 +2951,56 @@
         <v>348.88888888888891</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
         <v>2788</v>
       </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
       <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
         <v>283</v>
       </c>
-      <c r="O30">
-        <v>5</v>
-      </c>
       <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="2"/>
         <v>2505</v>
       </c>
-      <c r="Q30">
-        <v>40</v>
-      </c>
       <c r="R30">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S30">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>1.27</v>
-      </c>
-      <c r="U30" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V30" s="7">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>1.27</v>
+      </c>
+      <c r="V30">
+        <v>213.7</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="X30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31">
@@ -3025,52 +3030,56 @@
         <v>349.44444444444446</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
         <v>2788</v>
       </c>
-      <c r="L31">
-        <v>10</v>
-      </c>
       <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
         <v>288</v>
       </c>
-      <c r="O31">
-        <v>5</v>
-      </c>
       <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="Q31">
-        <v>40</v>
-      </c>
       <c r="R31">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S31">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>1.27</v>
-      </c>
-      <c r="U31" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V31" s="7">
+        <v>20</v>
+      </c>
+      <c r="U31">
+        <v>1.27</v>
+      </c>
+      <c r="V31">
+        <v>213.7</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32">
@@ -3100,52 +3109,56 @@
         <v>350</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
         <v>2788</v>
       </c>
-      <c r="L32">
-        <v>10</v>
-      </c>
       <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
         <v>295</v>
       </c>
-      <c r="O32">
-        <v>5</v>
-      </c>
       <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="2"/>
         <v>2493</v>
       </c>
-      <c r="Q32">
-        <v>40</v>
-      </c>
       <c r="R32">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S32">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>1.27</v>
-      </c>
-      <c r="U32" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V32" s="7">
+        <v>20</v>
+      </c>
+      <c r="U32">
+        <v>1.27</v>
+      </c>
+      <c r="V32">
+        <v>213.7</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="X32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33">
@@ -3175,55 +3188,59 @@
         <v>550</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
         <v>2788</v>
       </c>
-      <c r="L33">
-        <v>10</v>
-      </c>
       <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
         <v>181</v>
       </c>
-      <c r="O33">
-        <v>5</v>
-      </c>
       <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="2"/>
         <v>2607</v>
       </c>
-      <c r="Q33">
-        <v>40</v>
-      </c>
       <c r="R33">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S33">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>1.27</v>
-      </c>
-      <c r="U33" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V33" s="7">
+        <v>20</v>
+      </c>
+      <c r="U33">
+        <v>1.27</v>
+      </c>
+      <c r="V33">
+        <v>213.7</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X33" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="s">
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34">
@@ -3253,52 +3270,56 @@
         <v>548.75</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>145</v>
       </c>
       <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
         <v>2788</v>
       </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
       <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
         <v>157</v>
       </c>
-      <c r="O34">
-        <v>5</v>
-      </c>
       <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="2"/>
         <v>2631</v>
       </c>
-      <c r="Q34">
-        <v>40</v>
-      </c>
       <c r="R34">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S34">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>1.27</v>
-      </c>
-      <c r="U34" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V34" s="7">
+        <v>20</v>
+      </c>
+      <c r="U34">
+        <v>1.27</v>
+      </c>
+      <c r="V34">
+        <v>213.7</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="3"/>
         <v>2.137</v>
       </c>
-      <c r="W34" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X34" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
@@ -3311,7 +3332,7 @@
         <v>705</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:E66" si="4">D35-F35</f>
+        <f t="shared" ref="E35:E66" si="5">D35-F35</f>
         <v>702.5</v>
       </c>
       <c r="F35">
@@ -3324,56 +3345,60 @@
         <v>550</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I66" si="5">H35-F35</f>
+        <f t="shared" ref="I35:I66" si="6">H35-F35</f>
         <v>547.5</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>155</v>
       </c>
       <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
         <v>2788</v>
       </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
       <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
         <v>200</v>
       </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
       <c r="P35">
-        <f t="shared" ref="P35:P66" si="6">K35-M35</f>
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Q66" si="7">L35-N35</f>
         <v>2588</v>
       </c>
-      <c r="Q35">
-        <v>40</v>
-      </c>
       <c r="R35">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S35">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>1.27</v>
-      </c>
-      <c r="U35" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V35" s="7">
-        <f t="shared" ref="V35:V66" si="7">U35*0.01</f>
-        <v>2.137</v>
-      </c>
-      <c r="W35" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X35" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35">
+        <v>1.27</v>
+      </c>
+      <c r="V35">
+        <v>213.7</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="W35:W66" si="8">V35*0.01</f>
+        <v>2.137</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
@@ -3386,7 +3411,7 @@
         <v>710</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>706.25</v>
       </c>
       <c r="F36">
@@ -3399,56 +3424,60 @@
         <v>550</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>546.25</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
         <v>2788</v>
       </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
       <c r="M36">
+        <v>10</v>
+      </c>
+      <c r="N36">
         <v>170</v>
       </c>
-      <c r="O36">
-        <v>5</v>
-      </c>
       <c r="P36">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
         <v>2618</v>
       </c>
-      <c r="Q36">
-        <v>40</v>
-      </c>
       <c r="R36">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S36">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>1.27</v>
-      </c>
-      <c r="U36" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V36" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W36" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X36" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36">
+        <v>1.27</v>
+      </c>
+      <c r="V36">
+        <v>213.7</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
@@ -3461,7 +3490,7 @@
         <v>720</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>715</v>
       </c>
       <c r="F37">
@@ -3474,56 +3503,60 @@
         <v>550</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>545</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>170</v>
       </c>
       <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
         <v>2788</v>
       </c>
-      <c r="L37">
-        <v>10</v>
-      </c>
       <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
         <v>171</v>
       </c>
-      <c r="O37">
-        <v>5</v>
-      </c>
       <c r="P37">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
         <v>2617</v>
       </c>
-      <c r="Q37">
-        <v>40</v>
-      </c>
       <c r="R37">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S37">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>1.27</v>
-      </c>
-      <c r="U37" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V37" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W37" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X37" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37">
+        <v>1.27</v>
+      </c>
+      <c r="V37">
+        <v>213.7</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
@@ -3536,7 +3569,7 @@
         <v>725</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>725</v>
       </c>
       <c r="F38">
@@ -3549,56 +3582,60 @@
         <v>600</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
         <v>2788</v>
       </c>
-      <c r="L38">
-        <v>10</v>
-      </c>
       <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
         <v>150</v>
       </c>
-      <c r="O38">
-        <v>5</v>
-      </c>
       <c r="P38">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
         <v>2638</v>
       </c>
-      <c r="Q38">
-        <v>40</v>
-      </c>
       <c r="R38">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S38">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>1.27</v>
-      </c>
-      <c r="U38" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V38" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W38" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X38" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38">
+        <v>1.27</v>
+      </c>
+      <c r="V38">
+        <v>213.7</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -3611,7 +3648,7 @@
         <v>745</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>743</v>
       </c>
       <c r="F39">
@@ -3624,56 +3661,60 @@
         <v>600</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>598</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>145</v>
       </c>
       <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
         <v>2788</v>
       </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
       <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
         <v>164</v>
       </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
       <c r="P39">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
         <v>2624</v>
       </c>
-      <c r="Q39">
-        <v>40</v>
-      </c>
       <c r="R39">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S39">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>1.27</v>
-      </c>
-      <c r="U39" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V39" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W39" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X39" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39">
+        <v>1.27</v>
+      </c>
+      <c r="V39">
+        <v>213.7</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
@@ -3686,7 +3727,7 @@
         <v>280</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="F40">
@@ -3699,57 +3740,60 @@
         <v>200</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
         <v>3760</v>
       </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40" s="12">
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
         <v>315</v>
       </c>
-      <c r="N40" s="12"/>
-      <c r="O40">
-        <v>5</v>
-      </c>
       <c r="P40">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
         <v>3445</v>
       </c>
-      <c r="Q40">
-        <v>40</v>
-      </c>
       <c r="R40">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S40">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>1.27</v>
-      </c>
-      <c r="U40" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V40" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W40" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X40" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40">
+        <v>1.27</v>
+      </c>
+      <c r="V40">
+        <v>213.7</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41">
@@ -3762,7 +3806,7 @@
         <v>280</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="F41">
@@ -3775,128 +3819,129 @@
         <v>200</v>
       </c>
       <c r="I41">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>3760</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>330</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>3430</v>
+      </c>
+      <c r="R41">
+        <v>40</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>20</v>
+      </c>
+      <c r="U41">
+        <v>1.27</v>
+      </c>
+      <c r="V41">
+        <v>213.7</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4">
+        <v>280</v>
+      </c>
+      <c r="E42" s="4">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
-      </c>
-      <c r="K41">
+        <v>280</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
         <v>3760</v>
       </c>
-      <c r="L41">
-        <v>10</v>
-      </c>
-      <c r="M41">
-        <v>330</v>
-      </c>
-      <c r="O41">
-        <v>5</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="6"/>
-        <v>3430</v>
-      </c>
-      <c r="Q41">
-        <v>40</v>
-      </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>20</v>
-      </c>
-      <c r="T41">
-        <v>1.27</v>
-      </c>
-      <c r="U41" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V41" s="7">
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W41" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X41" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="13">
-        <v>1</v>
-      </c>
-      <c r="C42" s="13">
-        <v>4</v>
-      </c>
-      <c r="D42" s="14">
-        <v>280</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="F42" s="13">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
-        <v>5</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="13">
-        <v>5</v>
-      </c>
-      <c r="K42" s="13">
         <v>3760</v>
       </c>
-      <c r="L42">
-        <v>10</v>
-      </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42">
-        <v>5</v>
-      </c>
-      <c r="P42" s="13">
-        <f t="shared" si="6"/>
-        <v>3760</v>
-      </c>
-      <c r="Q42">
-        <v>40</v>
-      </c>
       <c r="R42">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S42">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>1.27</v>
-      </c>
-      <c r="U42" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V42" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W42" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42">
+        <v>1.27</v>
+      </c>
+      <c r="V42">
+        <v>213.7</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43">
@@ -3909,7 +3954,7 @@
         <v>285</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="F43">
@@ -3922,56 +3967,60 @@
         <v>200</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
         <v>3760</v>
       </c>
-      <c r="L43">
-        <v>10</v>
-      </c>
       <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
         <v>295</v>
       </c>
-      <c r="O43">
-        <v>5</v>
-      </c>
       <c r="P43">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
         <v>3465</v>
       </c>
-      <c r="Q43">
-        <v>40</v>
-      </c>
       <c r="R43">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S43">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>1.27</v>
-      </c>
-      <c r="U43" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V43" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W43" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X43" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43">
+        <v>1.27</v>
+      </c>
+      <c r="V43">
+        <v>213.7</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44">
@@ -3984,7 +4033,7 @@
         <v>295</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="F44">
@@ -3997,56 +4046,60 @@
         <v>200</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
         <v>3760</v>
       </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
       <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44">
         <v>289</v>
       </c>
-      <c r="O44">
-        <v>5</v>
-      </c>
       <c r="P44">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
         <v>3471</v>
       </c>
-      <c r="Q44">
-        <v>40</v>
-      </c>
       <c r="R44">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S44">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.27</v>
-      </c>
-      <c r="U44" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V44" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W44" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44">
+        <v>1.27</v>
+      </c>
+      <c r="V44">
+        <v>213.7</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45">
@@ -4059,7 +4112,7 @@
         <v>300</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="F45">
@@ -4072,57 +4125,60 @@
         <v>200</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
         <v>4610</v>
       </c>
-      <c r="L45">
-        <v>10</v>
-      </c>
-      <c r="M45" s="12">
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
         <v>196</v>
       </c>
-      <c r="N45" s="12"/>
-      <c r="O45">
-        <v>5</v>
-      </c>
       <c r="P45">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
         <v>4414</v>
       </c>
-      <c r="Q45">
-        <v>40</v>
-      </c>
       <c r="R45">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S45">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>1.27</v>
-      </c>
-      <c r="U45" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V45" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W45" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X45" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45">
+        <v>1.27</v>
+      </c>
+      <c r="V45">
+        <v>213.7</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46">
@@ -4135,7 +4191,7 @@
         <v>300</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="F46">
@@ -4148,53 +4204,53 @@
         <v>200</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
       <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
         <v>4610</v>
       </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="O46">
-        <v>5</v>
+      <c r="M46">
+        <v>10</v>
       </c>
       <c r="P46">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="7"/>
         <v>4610</v>
       </c>
-      <c r="Q46">
-        <v>40</v>
-      </c>
       <c r="R46">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S46">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>1.27</v>
-      </c>
-      <c r="U46" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V46" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W46" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X46" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46">
+        <v>1.27</v>
+      </c>
+      <c r="V46">
+        <v>213.7</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47">
@@ -4207,7 +4263,7 @@
         <v>335</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="F47">
@@ -4220,57 +4276,60 @@
         <v>200</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
         <v>4610</v>
       </c>
-      <c r="L47">
-        <v>10</v>
-      </c>
-      <c r="M47" s="12">
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
         <v>340</v>
       </c>
-      <c r="N47" s="12"/>
-      <c r="O47">
-        <v>5</v>
-      </c>
       <c r="P47">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
         <v>4270</v>
       </c>
-      <c r="Q47">
-        <v>40</v>
-      </c>
       <c r="R47">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S47">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>1.27</v>
-      </c>
-      <c r="U47" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V47" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W47" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X47" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47">
+        <v>1.27</v>
+      </c>
+      <c r="V47">
+        <v>213.7</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48">
@@ -4283,7 +4342,7 @@
         <v>340</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="F48">
@@ -4296,53 +4355,53 @@
         <v>200</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="J48">
-        <v>5</v>
-      </c>
       <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
         <v>4610</v>
       </c>
-      <c r="L48">
-        <v>10</v>
-      </c>
-      <c r="O48">
-        <v>5</v>
+      <c r="M48">
+        <v>10</v>
       </c>
       <c r="P48">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
         <v>4610</v>
       </c>
-      <c r="Q48">
-        <v>40</v>
-      </c>
       <c r="R48">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S48">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>1.27</v>
-      </c>
-      <c r="U48" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V48" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W48" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48">
+        <v>1.27</v>
+      </c>
+      <c r="V48">
+        <v>213.7</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49">
@@ -4355,7 +4414,7 @@
         <v>440</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="F49">
@@ -4368,59 +4427,63 @@
         <v>300</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
         <v>4610</v>
       </c>
-      <c r="L49">
-        <v>10</v>
-      </c>
       <c r="M49">
+        <v>10</v>
+      </c>
+      <c r="N49">
         <v>288</v>
       </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
       <c r="O49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="7"/>
         <v>4322</v>
       </c>
-      <c r="Q49">
-        <v>40</v>
-      </c>
       <c r="R49">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S49">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>1.27</v>
-      </c>
-      <c r="U49" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V49" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W49" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X49" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49">
+        <v>1.27</v>
+      </c>
+      <c r="V49">
+        <v>213.7</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>41</v>
       </c>
       <c r="B50">
@@ -4433,7 +4496,7 @@
         <v>450</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>448</v>
       </c>
       <c r="F50">
@@ -4446,59 +4509,63 @@
         <v>300</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
         <v>4610</v>
       </c>
-      <c r="L50">
-        <v>10</v>
-      </c>
       <c r="M50">
+        <v>10</v>
+      </c>
+      <c r="N50">
         <v>298.3</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>7.8070000000000004</v>
       </c>
-      <c r="O50">
-        <v>5</v>
-      </c>
       <c r="P50">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="7"/>
         <v>4311.7</v>
       </c>
-      <c r="Q50">
-        <v>40</v>
-      </c>
       <c r="R50">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S50">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>1.27</v>
-      </c>
-      <c r="U50" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V50" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W50" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X50" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50">
+        <v>1.27</v>
+      </c>
+      <c r="V50">
+        <v>213.7</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>41</v>
       </c>
       <c r="B51">
@@ -4511,7 +4578,7 @@
         <v>450</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>448</v>
       </c>
       <c r="F51">
@@ -4524,62 +4591,66 @@
         <v>300</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
         <v>4610</v>
       </c>
-      <c r="L51">
-        <v>10</v>
-      </c>
       <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="N51">
         <v>319.60000000000002</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>18</v>
       </c>
-      <c r="O51">
-        <v>5</v>
-      </c>
       <c r="P51">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="7"/>
         <v>4290.3999999999996</v>
       </c>
-      <c r="Q51">
-        <v>40</v>
-      </c>
       <c r="R51">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S51">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>1.27</v>
-      </c>
-      <c r="U51" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V51" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W51" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X51" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51">
+        <v>1.27</v>
+      </c>
+      <c r="V51">
+        <v>213.7</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>41</v>
       </c>
       <c r="B52">
@@ -4592,7 +4663,7 @@
         <v>450</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>446</v>
       </c>
       <c r="F52">
@@ -4605,59 +4676,63 @@
         <v>300</v>
       </c>
       <c r="I52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>296</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
         <v>4610</v>
       </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
       <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52">
         <v>301.7</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>29.838000000000001</v>
       </c>
-      <c r="O52">
-        <v>5</v>
-      </c>
       <c r="P52">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="7"/>
         <v>4308.3</v>
       </c>
-      <c r="Q52">
-        <v>40</v>
-      </c>
       <c r="R52">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S52">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>1.27</v>
-      </c>
-      <c r="U52" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V52" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W52" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X52" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52">
+        <v>1.27</v>
+      </c>
+      <c r="V52">
+        <v>213.7</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>41</v>
       </c>
       <c r="B53">
@@ -4670,7 +4745,7 @@
         <v>453</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>447</v>
       </c>
       <c r="F53">
@@ -4683,59 +4758,63 @@
         <v>300</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>294</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
         <v>4610</v>
       </c>
-      <c r="L53">
-        <v>10</v>
-      </c>
       <c r="M53">
+        <v>10</v>
+      </c>
+      <c r="N53">
         <v>306.39999999999998</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>39.840000000000003</v>
       </c>
-      <c r="O53">
-        <v>5</v>
-      </c>
       <c r="P53">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="7"/>
         <v>4303.6000000000004</v>
       </c>
-      <c r="Q53">
-        <v>40</v>
-      </c>
       <c r="R53">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S53">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T53">
-        <v>1.27</v>
-      </c>
-      <c r="U53" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V53" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W53" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X53" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53">
+        <v>1.27</v>
+      </c>
+      <c r="V53">
+        <v>213.7</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>41</v>
       </c>
       <c r="B54">
@@ -4748,7 +4827,7 @@
         <v>453</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="F54">
@@ -4761,59 +4840,63 @@
         <v>300</v>
       </c>
       <c r="I54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>153</v>
       </c>
       <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
         <v>4610</v>
       </c>
-      <c r="L54">
-        <v>10</v>
-      </c>
       <c r="M54">
+        <v>10</v>
+      </c>
+      <c r="N54">
         <v>310.60000000000002</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>49.5</v>
       </c>
-      <c r="O54">
-        <v>5</v>
-      </c>
       <c r="P54">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="7"/>
         <v>4299.3999999999996</v>
       </c>
-      <c r="Q54">
-        <v>40</v>
-      </c>
       <c r="R54">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S54">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>1.27</v>
-      </c>
-      <c r="U54" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V54" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W54" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X54" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54">
+        <v>1.27</v>
+      </c>
+      <c r="V54">
+        <v>213.7</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>41</v>
       </c>
       <c r="B55">
@@ -4826,7 +4909,7 @@
         <v>455</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>445</v>
       </c>
       <c r="F55">
@@ -4839,59 +4922,63 @@
         <v>300</v>
       </c>
       <c r="I55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>290</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>155</v>
       </c>
       <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
         <v>4610</v>
       </c>
-      <c r="L55">
-        <v>10</v>
-      </c>
       <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55">
         <v>308.10000000000002</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>59.073</v>
       </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
       <c r="P55">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="7"/>
         <v>4301.8999999999996</v>
       </c>
-      <c r="Q55">
-        <v>40</v>
-      </c>
       <c r="R55">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S55">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>1.27</v>
-      </c>
-      <c r="U55" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V55" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W55" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X55" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55">
+        <v>1.27</v>
+      </c>
+      <c r="V55">
+        <v>213.7</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>41</v>
       </c>
       <c r="B56">
@@ -4904,7 +4991,7 @@
         <v>455</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>443</v>
       </c>
       <c r="F56">
@@ -4917,59 +5004,63 @@
         <v>300</v>
       </c>
       <c r="I56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>288</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>155</v>
       </c>
       <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
         <v>4610</v>
       </c>
-      <c r="L56">
-        <v>10</v>
-      </c>
       <c r="M56">
+        <v>10</v>
+      </c>
+      <c r="N56">
         <v>304.10000000000002</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>79.244</v>
       </c>
-      <c r="O56">
-        <v>5</v>
-      </c>
       <c r="P56">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="7"/>
         <v>4305.8999999999996</v>
       </c>
-      <c r="Q56">
-        <v>40</v>
-      </c>
       <c r="R56">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S56">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>1.27</v>
-      </c>
-      <c r="U56" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V56" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W56" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X56" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56">
+        <v>1.27</v>
+      </c>
+      <c r="V56">
+        <v>213.7</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>40</v>
       </c>
       <c r="B57">
@@ -4982,7 +5073,7 @@
         <v>460</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>459.4</v>
       </c>
       <c r="F57">
@@ -4995,56 +5086,60 @@
         <v>300</v>
       </c>
       <c r="I57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>299.39999999999998</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
         <v>4610</v>
       </c>
-      <c r="L57">
-        <v>10</v>
-      </c>
       <c r="M57">
+        <v>10</v>
+      </c>
+      <c r="N57">
         <v>250.5</v>
       </c>
-      <c r="O57">
-        <v>5</v>
-      </c>
       <c r="P57">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="7"/>
         <v>4359.5</v>
       </c>
-      <c r="Q57">
-        <v>40</v>
-      </c>
       <c r="R57">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S57">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>1.27</v>
-      </c>
-      <c r="U57" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V57" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W57" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X57" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57">
+        <v>1.27</v>
+      </c>
+      <c r="V57">
+        <v>213.7</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>40</v>
       </c>
       <c r="B58">
@@ -5057,7 +5152,7 @@
         <v>460</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>458.8</v>
       </c>
       <c r="F58">
@@ -5070,56 +5165,60 @@
         <v>300</v>
       </c>
       <c r="I58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>298.8</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
         <v>4610</v>
       </c>
-      <c r="L58">
-        <v>10</v>
-      </c>
       <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="N58">
         <v>246.5</v>
       </c>
-      <c r="O58">
-        <v>5</v>
-      </c>
       <c r="P58">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="7"/>
         <v>4363.5</v>
       </c>
-      <c r="Q58">
-        <v>40</v>
-      </c>
       <c r="R58">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>1.27</v>
-      </c>
-      <c r="U58" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V58" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W58" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X58" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58">
+        <v>1.27</v>
+      </c>
+      <c r="V58">
+        <v>213.7</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>40</v>
       </c>
       <c r="B59">
@@ -5132,7 +5231,7 @@
         <v>460</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>458.2</v>
       </c>
       <c r="F59">
@@ -5145,56 +5244,60 @@
         <v>300</v>
       </c>
       <c r="I59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>298.2</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59">
         <v>4610</v>
       </c>
-      <c r="L59">
-        <v>10</v>
-      </c>
       <c r="M59">
+        <v>10</v>
+      </c>
+      <c r="N59">
         <v>240.6</v>
       </c>
-      <c r="O59">
-        <v>5</v>
-      </c>
       <c r="P59">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="7"/>
         <v>4369.3999999999996</v>
       </c>
-      <c r="Q59">
-        <v>40</v>
-      </c>
       <c r="R59">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S59">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>1.27</v>
-      </c>
-      <c r="U59" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V59" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W59" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X59" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59">
+        <v>1.27</v>
+      </c>
+      <c r="V59">
+        <v>213.7</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>40</v>
       </c>
       <c r="B60">
@@ -5207,7 +5310,7 @@
         <v>460</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>457.6</v>
       </c>
       <c r="F60">
@@ -5220,56 +5323,60 @@
         <v>300</v>
       </c>
       <c r="I60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>297.60000000000002</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
         <v>4610</v>
       </c>
-      <c r="L60">
-        <v>10</v>
-      </c>
       <c r="M60">
+        <v>10</v>
+      </c>
+      <c r="N60">
         <v>256</v>
       </c>
-      <c r="O60">
-        <v>5</v>
-      </c>
       <c r="P60">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="7"/>
         <v>4354</v>
       </c>
-      <c r="Q60">
-        <v>40</v>
-      </c>
       <c r="R60">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S60">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>1.27</v>
-      </c>
-      <c r="U60" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V60" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W60" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X60" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60">
+        <v>1.27</v>
+      </c>
+      <c r="V60">
+        <v>213.7</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>40</v>
       </c>
       <c r="B61">
@@ -5282,7 +5389,7 @@
         <v>460</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>457</v>
       </c>
       <c r="F61">
@@ -5295,56 +5402,60 @@
         <v>300</v>
       </c>
       <c r="I61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>160</v>
       </c>
       <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
         <v>4610</v>
       </c>
-      <c r="L61">
-        <v>10</v>
-      </c>
       <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="N61">
         <v>235.7</v>
       </c>
-      <c r="O61">
-        <v>5</v>
-      </c>
       <c r="P61">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="7"/>
         <v>4374.3</v>
       </c>
-      <c r="Q61">
-        <v>40</v>
-      </c>
       <c r="R61">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S61">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>1.27</v>
-      </c>
-      <c r="U61" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V61" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X61" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61">
+        <v>1.27</v>
+      </c>
+      <c r="V61">
+        <v>213.7</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>41</v>
       </c>
       <c r="B62">
@@ -5357,7 +5468,7 @@
         <v>462</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>448</v>
       </c>
       <c r="F62">
@@ -5370,59 +5481,63 @@
         <v>300</v>
       </c>
       <c r="I62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>286</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>162</v>
       </c>
       <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
         <v>4610</v>
       </c>
-      <c r="L62">
-        <v>10</v>
-      </c>
       <c r="M62">
+        <v>10</v>
+      </c>
+      <c r="N62">
         <v>313</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>85.844999999999999</v>
       </c>
-      <c r="O62">
-        <v>5</v>
-      </c>
       <c r="P62">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="7"/>
         <v>4297</v>
       </c>
-      <c r="Q62">
-        <v>40</v>
-      </c>
       <c r="R62">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S62">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>1.27</v>
-      </c>
-      <c r="U62" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V62" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W62" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X62" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62">
+        <v>1.27</v>
+      </c>
+      <c r="V62">
+        <v>213.7</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>40</v>
       </c>
       <c r="B63">
@@ -5435,7 +5550,7 @@
         <v>470</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>470</v>
       </c>
       <c r="F63">
@@ -5448,56 +5563,60 @@
         <v>300</v>
       </c>
       <c r="I63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>170</v>
       </c>
       <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
         <v>4610</v>
       </c>
-      <c r="L63">
-        <v>10</v>
-      </c>
       <c r="M63">
+        <v>10</v>
+      </c>
+      <c r="N63">
         <v>217</v>
       </c>
-      <c r="O63">
-        <v>5</v>
-      </c>
       <c r="P63">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="7"/>
         <v>4393</v>
       </c>
-      <c r="Q63">
-        <v>40</v>
-      </c>
       <c r="R63">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S63">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>1.27</v>
-      </c>
-      <c r="U63" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V63" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W63" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X63" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63">
+        <v>1.27</v>
+      </c>
+      <c r="V63">
+        <v>213.7</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>41</v>
       </c>
       <c r="B64">
@@ -5510,7 +5629,7 @@
         <v>470</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>454</v>
       </c>
       <c r="F64">
@@ -5523,59 +5642,63 @@
         <v>200</v>
       </c>
       <c r="I64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
       <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
         <v>4610</v>
       </c>
-      <c r="L64">
-        <v>10</v>
-      </c>
       <c r="M64">
+        <v>10</v>
+      </c>
+      <c r="N64">
         <v>275.7</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>6</v>
       </c>
-      <c r="O64">
-        <v>5</v>
-      </c>
       <c r="P64">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="7"/>
         <v>4334.3</v>
       </c>
-      <c r="Q64">
-        <v>40</v>
-      </c>
       <c r="R64">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S64">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>1.27</v>
-      </c>
-      <c r="U64" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V64" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X64" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64">
+        <v>1.27</v>
+      </c>
+      <c r="V64">
+        <v>213.7</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>41</v>
       </c>
       <c r="B65">
@@ -5588,7 +5711,7 @@
         <v>470</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>452</v>
       </c>
       <c r="F65">
@@ -5601,59 +5724,63 @@
         <v>200</v>
       </c>
       <c r="I65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
       <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
         <v>4610</v>
       </c>
-      <c r="L65">
-        <v>10</v>
-      </c>
       <c r="M65">
+        <v>10</v>
+      </c>
+      <c r="N65">
         <v>272.5</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>19</v>
       </c>
-      <c r="O65">
-        <v>5</v>
-      </c>
       <c r="P65">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="7"/>
         <v>4337.5</v>
       </c>
-      <c r="Q65">
-        <v>40</v>
-      </c>
       <c r="R65">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S65">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>1.27</v>
-      </c>
-      <c r="U65" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V65" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X65" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65">
+        <v>1.27</v>
+      </c>
+      <c r="V65">
+        <v>213.7</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>41</v>
       </c>
       <c r="B66">
@@ -5666,7 +5793,7 @@
         <v>475</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>455</v>
       </c>
       <c r="F66">
@@ -5679,59 +5806,63 @@
         <v>200</v>
       </c>
       <c r="I66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>275</v>
       </c>
       <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
         <v>4610</v>
       </c>
-      <c r="L66">
-        <v>10</v>
-      </c>
       <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
         <v>278.3</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>28.974</v>
       </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
       <c r="P66">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="7"/>
         <v>4331.7</v>
       </c>
-      <c r="Q66">
-        <v>40</v>
-      </c>
       <c r="R66">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S66">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>1.27</v>
-      </c>
-      <c r="U66" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V66" s="7">
-        <f t="shared" si="7"/>
-        <v>2.137</v>
-      </c>
-      <c r="W66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X66" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66">
+        <v>1.27</v>
+      </c>
+      <c r="V66">
+        <v>213.7</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="8"/>
+        <v>2.137</v>
+      </c>
+      <c r="X66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>43</v>
       </c>
       <c r="B67">
@@ -5744,7 +5875,7 @@
         <v>550</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E98" si="8">D67-F67</f>
+        <f t="shared" ref="E67:E97" si="9">D67-F67</f>
         <v>550</v>
       </c>
       <c r="F67" s="4">
@@ -5757,59 +5888,63 @@
         <v>300</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I98" si="9">H67-F67</f>
+        <f t="shared" ref="I67:I97" si="10">H67-F67</f>
         <v>300</v>
       </c>
       <c r="J67">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67">
         <v>4610</v>
       </c>
-      <c r="L67">
-        <v>10</v>
-      </c>
       <c r="M67">
+        <v>10</v>
+      </c>
+      <c r="N67">
         <v>303.89999999999998</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>65.873999999999995</v>
       </c>
-      <c r="O67">
-        <v>5</v>
-      </c>
       <c r="P67">
-        <f t="shared" ref="P67:P97" si="10">K67-M67</f>
+        <v>5</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q97" si="11">L67-N67</f>
         <v>4306.1000000000004</v>
       </c>
-      <c r="Q67">
-        <v>40</v>
-      </c>
       <c r="R67">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S67">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>1.27</v>
-      </c>
-      <c r="U67" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V67" s="7">
-        <f t="shared" ref="V67:V98" si="11">U67*0.01</f>
-        <v>2.137</v>
-      </c>
-      <c r="W67" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X67" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67">
+        <v>1.27</v>
+      </c>
+      <c r="V67">
+        <v>213.7</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W97" si="12">V67*0.01</f>
+        <v>2.137</v>
+      </c>
+      <c r="X67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>43</v>
       </c>
       <c r="B68">
@@ -5822,7 +5957,7 @@
         <v>555</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>553.5</v>
       </c>
       <c r="F68" s="4">
@@ -5835,59 +5970,63 @@
         <v>300</v>
       </c>
       <c r="I68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>298.5</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <f t="shared" ref="J68:J97" si="13">E68-I68</f>
+        <v>255</v>
       </c>
       <c r="K68">
+        <v>5</v>
+      </c>
+      <c r="L68">
         <v>4610</v>
       </c>
-      <c r="L68">
-        <v>10</v>
-      </c>
       <c r="M68">
+        <v>10</v>
+      </c>
+      <c r="N68">
         <v>289.5</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>2.403</v>
       </c>
-      <c r="O68">
-        <v>5</v>
-      </c>
       <c r="P68">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="11"/>
         <v>4320.5</v>
       </c>
-      <c r="Q68">
-        <v>40</v>
-      </c>
       <c r="R68">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S68">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>1.27</v>
-      </c>
-      <c r="U68" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V68" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X68" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68">
+        <v>1.27</v>
+      </c>
+      <c r="V68">
+        <v>213.7</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>44</v>
       </c>
       <c r="B69">
@@ -5900,7 +6039,7 @@
         <v>560</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>558.5</v>
       </c>
       <c r="F69" s="4">
@@ -5913,59 +6052,63 @@
         <v>300</v>
       </c>
       <c r="I69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>298.5</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>260</v>
       </c>
       <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
         <v>4610</v>
       </c>
-      <c r="L69">
-        <v>10</v>
-      </c>
       <c r="M69">
+        <v>10</v>
+      </c>
+      <c r="N69">
         <v>263.5</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>119.248</v>
       </c>
-      <c r="O69">
-        <v>5</v>
-      </c>
       <c r="P69">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="11"/>
         <v>4346.5</v>
       </c>
-      <c r="Q69">
-        <v>40</v>
-      </c>
       <c r="R69">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S69">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>1.27</v>
-      </c>
-      <c r="U69" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V69" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W69" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X69" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69">
+        <v>1.27</v>
+      </c>
+      <c r="V69">
+        <v>213.7</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>44</v>
       </c>
       <c r="B70">
@@ -5978,7 +6121,7 @@
         <v>565</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>565</v>
       </c>
       <c r="F70" s="4">
@@ -5991,59 +6134,63 @@
         <v>200</v>
       </c>
       <c r="I70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>365</v>
       </c>
       <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70">
         <v>4610</v>
       </c>
-      <c r="L70">
-        <v>10</v>
-      </c>
       <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
         <v>250.8</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>1.75</v>
       </c>
-      <c r="O70">
-        <v>5</v>
-      </c>
       <c r="P70">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="11"/>
         <v>4359.2</v>
       </c>
-      <c r="Q70">
-        <v>40</v>
-      </c>
       <c r="R70">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S70">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>1.27</v>
-      </c>
-      <c r="U70" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V70" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W70" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X70" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70">
+        <v>1.27</v>
+      </c>
+      <c r="V70">
+        <v>213.7</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>43</v>
       </c>
       <c r="B71">
@@ -6056,7 +6203,7 @@
         <v>567</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>564</v>
       </c>
       <c r="F71" s="4">
@@ -6069,59 +6216,63 @@
         <v>300</v>
       </c>
       <c r="I71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>297</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>267</v>
       </c>
       <c r="K71">
+        <v>5</v>
+      </c>
+      <c r="L71">
         <v>4610</v>
       </c>
-      <c r="L71">
-        <v>10</v>
-      </c>
       <c r="M71">
+        <v>10</v>
+      </c>
+      <c r="N71">
         <v>301.3</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>20.044</v>
       </c>
-      <c r="O71">
-        <v>5</v>
-      </c>
       <c r="P71">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="11"/>
         <v>4308.7</v>
       </c>
-      <c r="Q71">
-        <v>40</v>
-      </c>
       <c r="R71">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S71">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>1.27</v>
-      </c>
-      <c r="U71" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V71" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X71" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71">
+        <v>1.27</v>
+      </c>
+      <c r="V71">
+        <v>213.7</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>43</v>
       </c>
       <c r="B72">
@@ -6134,7 +6285,7 @@
         <v>567</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>567</v>
       </c>
       <c r="F72" s="4">
@@ -6147,59 +6298,63 @@
         <v>300</v>
       </c>
       <c r="I72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>267</v>
       </c>
       <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="L72">
         <v>4610</v>
       </c>
-      <c r="L72">
-        <v>10</v>
-      </c>
       <c r="M72">
+        <v>10</v>
+      </c>
+      <c r="N72">
         <v>298.89999999999998</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>101.407</v>
       </c>
-      <c r="O72">
-        <v>5</v>
-      </c>
       <c r="P72">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="11"/>
         <v>4311.1000000000004</v>
       </c>
-      <c r="Q72">
-        <v>40</v>
-      </c>
       <c r="R72">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S72">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>1.27</v>
-      </c>
-      <c r="U72" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V72" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W72" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X72" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72">
+        <v>1.27</v>
+      </c>
+      <c r="V72">
+        <v>213.7</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>43</v>
       </c>
       <c r="B73">
@@ -6212,7 +6367,7 @@
         <v>570</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>568.5</v>
       </c>
       <c r="F73" s="4">
@@ -6225,59 +6380,63 @@
         <v>300</v>
       </c>
       <c r="I73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>298.5</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>270</v>
       </c>
       <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73">
         <v>4610</v>
       </c>
-      <c r="L73">
-        <v>10</v>
-      </c>
       <c r="M73">
+        <v>10</v>
+      </c>
+      <c r="N73">
         <v>284.7</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>109.76900000000001</v>
       </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
       <c r="P73">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="11"/>
         <v>4325.3</v>
       </c>
-      <c r="Q73">
-        <v>40</v>
-      </c>
       <c r="R73">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S73">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>1.27</v>
-      </c>
-      <c r="U73" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V73" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W73" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X73" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73">
+        <v>1.27</v>
+      </c>
+      <c r="V73">
+        <v>213.7</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>43</v>
       </c>
       <c r="B74">
@@ -6290,7 +6449,7 @@
         <v>575</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>575</v>
       </c>
       <c r="F74" s="4">
@@ -6303,59 +6462,63 @@
         <v>300</v>
       </c>
       <c r="I74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>275</v>
       </c>
       <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
         <v>4610</v>
       </c>
-      <c r="L74">
-        <v>10</v>
-      </c>
       <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
         <v>318.10000000000002</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>33.128999999999998</v>
       </c>
-      <c r="O74">
-        <v>5</v>
-      </c>
       <c r="P74">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="11"/>
         <v>4291.8999999999996</v>
       </c>
-      <c r="Q74">
-        <v>40</v>
-      </c>
       <c r="R74">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S74">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>1.27</v>
-      </c>
-      <c r="U74" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V74" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W74" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X74" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74">
+        <v>1.27</v>
+      </c>
+      <c r="V74">
+        <v>213.7</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>43</v>
       </c>
       <c r="B75">
@@ -6368,7 +6531,7 @@
         <v>575</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>572</v>
       </c>
       <c r="F75" s="4">
@@ -6381,59 +6544,63 @@
         <v>300</v>
       </c>
       <c r="I75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>297</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>275</v>
       </c>
       <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75">
         <v>4610</v>
       </c>
-      <c r="L75">
-        <v>10</v>
-      </c>
       <c r="M75">
+        <v>10</v>
+      </c>
+      <c r="N75">
         <v>300.89999999999998</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>148.22200000000001</v>
       </c>
-      <c r="O75">
-        <v>5</v>
-      </c>
       <c r="P75">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="11"/>
         <v>4309.1000000000004</v>
       </c>
-      <c r="Q75">
-        <v>40</v>
-      </c>
       <c r="R75">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S75">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>1.27</v>
-      </c>
-      <c r="U75" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V75" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W75" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X75" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75">
+        <v>1.27</v>
+      </c>
+      <c r="V75">
+        <v>213.7</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>43</v>
       </c>
       <c r="B76">
@@ -6446,7 +6613,7 @@
         <v>575</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>575</v>
       </c>
       <c r="F76" s="4">
@@ -6459,59 +6626,63 @@
         <v>300</v>
       </c>
       <c r="I76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>275</v>
       </c>
       <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
         <v>4610</v>
       </c>
-      <c r="L76">
-        <v>10</v>
-      </c>
       <c r="M76">
+        <v>10</v>
+      </c>
+      <c r="N76">
         <v>287.60000000000002</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>172.72200000000001</v>
       </c>
-      <c r="O76">
-        <v>5</v>
-      </c>
       <c r="P76">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="11"/>
         <v>4322.3999999999996</v>
       </c>
-      <c r="Q76">
-        <v>40</v>
-      </c>
       <c r="R76">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S76">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.27</v>
-      </c>
-      <c r="U76" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V76" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W76" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X76" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76">
+        <v>1.27</v>
+      </c>
+      <c r="V76">
+        <v>213.7</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>44</v>
       </c>
       <c r="B77">
@@ -6524,7 +6695,7 @@
         <v>575</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>575</v>
       </c>
       <c r="F77" s="4">
@@ -6537,59 +6708,63 @@
         <v>300</v>
       </c>
       <c r="I77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>275</v>
       </c>
       <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
         <v>4610</v>
       </c>
-      <c r="L77">
-        <v>10</v>
-      </c>
       <c r="M77">
+        <v>10</v>
+      </c>
+      <c r="N77">
         <v>261.7</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>98.466999999999999</v>
       </c>
-      <c r="O77">
-        <v>5</v>
-      </c>
       <c r="P77">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="11"/>
         <v>4348.3</v>
       </c>
-      <c r="Q77">
-        <v>40</v>
-      </c>
       <c r="R77">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S77">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.27</v>
-      </c>
-      <c r="U77" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V77" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W77" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X77" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77">
+        <v>1.27</v>
+      </c>
+      <c r="V77">
+        <v>213.7</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>44</v>
       </c>
       <c r="B78">
@@ -6602,7 +6777,7 @@
         <v>577</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>576</v>
       </c>
       <c r="F78" s="4">
@@ -6615,59 +6790,63 @@
         <v>200</v>
       </c>
       <c r="I78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>199</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>377</v>
       </c>
       <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78">
         <v>4610</v>
       </c>
-      <c r="L78">
-        <v>10</v>
-      </c>
       <c r="M78">
+        <v>10</v>
+      </c>
+      <c r="N78">
         <v>280.8</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>23.297000000000001</v>
       </c>
-      <c r="O78">
-        <v>5</v>
-      </c>
       <c r="P78">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="11"/>
         <v>4329.2</v>
       </c>
-      <c r="Q78">
-        <v>40</v>
-      </c>
       <c r="R78">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S78">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>1.27</v>
-      </c>
-      <c r="U78" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V78" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W78" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X78" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U78">
+        <v>1.27</v>
+      </c>
+      <c r="V78">
+        <v>213.7</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>44</v>
       </c>
       <c r="B79">
@@ -6680,7 +6859,7 @@
         <v>577</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>575</v>
       </c>
       <c r="F79" s="4">
@@ -6693,59 +6872,63 @@
         <v>300</v>
       </c>
       <c r="I79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>298</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>277</v>
       </c>
       <c r="K79">
+        <v>5</v>
+      </c>
+      <c r="L79">
         <v>4610</v>
       </c>
-      <c r="L79">
-        <v>10</v>
-      </c>
       <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
         <v>287.39999999999998</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>113.235</v>
       </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
       <c r="P79">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="11"/>
         <v>4322.6000000000004</v>
       </c>
-      <c r="Q79">
-        <v>40</v>
-      </c>
       <c r="R79">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S79">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>1.27</v>
-      </c>
-      <c r="U79" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V79" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W79" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X79" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U79">
+        <v>1.27</v>
+      </c>
+      <c r="V79">
+        <v>213.7</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>44</v>
       </c>
       <c r="B80">
@@ -6758,7 +6941,7 @@
         <v>577</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>574</v>
       </c>
       <c r="F80" s="4">
@@ -6771,59 +6954,63 @@
         <v>400</v>
       </c>
       <c r="I80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>397</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>177</v>
       </c>
       <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80">
         <v>4610</v>
       </c>
-      <c r="L80">
-        <v>10</v>
-      </c>
       <c r="M80">
+        <v>10</v>
+      </c>
+      <c r="N80">
         <v>287.89999999999998</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>139.66499999999999</v>
       </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
       <c r="P80">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="11"/>
         <v>4322.1000000000004</v>
       </c>
-      <c r="Q80">
-        <v>40</v>
-      </c>
       <c r="R80">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S80">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>1.27</v>
-      </c>
-      <c r="U80" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V80" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W80" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X80" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U80">
+        <v>1.27</v>
+      </c>
+      <c r="V80">
+        <v>213.7</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>44</v>
       </c>
       <c r="B81">
@@ -6836,7 +7023,7 @@
         <v>577</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>573</v>
       </c>
       <c r="F81" s="4">
@@ -6849,59 +7036,63 @@
         <v>400</v>
       </c>
       <c r="I81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>396</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>177</v>
       </c>
       <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81">
         <v>4610</v>
       </c>
-      <c r="L81">
-        <v>10</v>
-      </c>
       <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="N81">
         <v>271.5</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>159.245</v>
       </c>
-      <c r="O81">
-        <v>5</v>
-      </c>
       <c r="P81">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="11"/>
         <v>4338.5</v>
       </c>
-      <c r="Q81">
-        <v>40</v>
-      </c>
       <c r="R81">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S81">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>1.27</v>
-      </c>
-      <c r="U81" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V81" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W81" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X81" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U81">
+        <v>1.27</v>
+      </c>
+      <c r="V81">
+        <v>213.7</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>44</v>
       </c>
       <c r="B82">
@@ -6914,7 +7105,7 @@
         <v>580</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
       <c r="F82" s="4">
@@ -6927,59 +7118,63 @@
         <v>200</v>
       </c>
       <c r="I82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>380</v>
       </c>
       <c r="K82">
+        <v>5</v>
+      </c>
+      <c r="L82">
         <v>4610</v>
       </c>
-      <c r="L82">
-        <v>10</v>
-      </c>
       <c r="M82">
+        <v>10</v>
+      </c>
+      <c r="N82">
         <v>251.4</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>1.85</v>
       </c>
-      <c r="O82">
-        <v>5</v>
-      </c>
       <c r="P82">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="11"/>
         <v>4358.6000000000004</v>
       </c>
-      <c r="Q82">
-        <v>40</v>
-      </c>
       <c r="R82">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>1.27</v>
-      </c>
-      <c r="U82" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V82" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W82" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X82" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U82">
+        <v>1.27</v>
+      </c>
+      <c r="V82">
+        <v>213.7</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>37</v>
       </c>
       <c r="B83">
@@ -6992,7 +7187,7 @@
         <v>685</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>678</v>
       </c>
       <c r="F83">
@@ -7002,53 +7197,53 @@
         <v>5</v>
       </c>
       <c r="I83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7</v>
       </c>
-      <c r="J83">
-        <v>5</v>
-      </c>
       <c r="K83">
+        <v>5</v>
+      </c>
+      <c r="L83">
         <v>4610</v>
       </c>
-      <c r="L83">
-        <v>10</v>
-      </c>
-      <c r="O83">
-        <v>5</v>
+      <c r="M83">
+        <v>10</v>
       </c>
       <c r="P83">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q83">
-        <v>40</v>
-      </c>
       <c r="R83">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S83">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T83">
-        <v>1.27</v>
-      </c>
-      <c r="U83" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V83" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W83" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X83" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U83">
+        <v>1.27</v>
+      </c>
+      <c r="V83">
+        <v>213.7</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>37</v>
       </c>
       <c r="B84">
@@ -7061,7 +7256,7 @@
         <v>690</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>690</v>
       </c>
       <c r="F84">
@@ -7071,53 +7266,53 @@
         <v>5</v>
       </c>
       <c r="I84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84">
         <v>4610</v>
       </c>
-      <c r="L84">
-        <v>10</v>
-      </c>
-      <c r="O84">
-        <v>5</v>
+      <c r="M84">
+        <v>10</v>
       </c>
       <c r="P84">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q84">
-        <v>40</v>
-      </c>
       <c r="R84">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S84">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>1.27</v>
-      </c>
-      <c r="U84" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V84" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W84" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X84" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U84">
+        <v>1.27</v>
+      </c>
+      <c r="V84">
+        <v>213.7</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85">
@@ -7130,7 +7325,7 @@
         <v>695</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>689.75</v>
       </c>
       <c r="F85">
@@ -7140,53 +7335,53 @@
         <v>5</v>
       </c>
       <c r="I85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.25</v>
       </c>
-      <c r="J85">
-        <v>5</v>
-      </c>
       <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="L85">
         <v>4610</v>
       </c>
-      <c r="L85">
-        <v>10</v>
-      </c>
-      <c r="O85">
-        <v>5</v>
+      <c r="M85">
+        <v>10</v>
       </c>
       <c r="P85">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q85">
-        <v>40</v>
-      </c>
       <c r="R85">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S85">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>1.27</v>
-      </c>
-      <c r="U85" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V85" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W85" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X85" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U85">
+        <v>1.27</v>
+      </c>
+      <c r="V85">
+        <v>213.7</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>37</v>
       </c>
       <c r="B86">
@@ -7199,7 +7394,7 @@
         <v>700</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
       <c r="F86">
@@ -7209,53 +7404,53 @@
         <v>5</v>
       </c>
       <c r="I86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K86">
+        <v>5</v>
+      </c>
+      <c r="L86">
         <v>4610</v>
       </c>
-      <c r="L86">
-        <v>10</v>
-      </c>
-      <c r="O86">
-        <v>5</v>
+      <c r="M86">
+        <v>10</v>
       </c>
       <c r="P86">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q86">
-        <v>40</v>
-      </c>
       <c r="R86">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S86">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>1.27</v>
-      </c>
-      <c r="U86" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V86" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W86" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X86" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U86">
+        <v>1.27</v>
+      </c>
+      <c r="V86">
+        <v>213.7</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>37</v>
       </c>
       <c r="B87">
@@ -7268,7 +7463,7 @@
         <v>700</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>694.75</v>
       </c>
       <c r="F87">
@@ -7278,53 +7473,53 @@
         <v>5</v>
       </c>
       <c r="I87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5.25</v>
       </c>
-      <c r="J87">
-        <v>5</v>
-      </c>
       <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87">
         <v>4610</v>
       </c>
-      <c r="L87">
-        <v>10</v>
-      </c>
-      <c r="O87">
-        <v>5</v>
+      <c r="M87">
+        <v>10</v>
       </c>
       <c r="P87">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q87">
-        <v>40</v>
-      </c>
       <c r="R87">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S87">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>1.27</v>
-      </c>
-      <c r="U87" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V87" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W87" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X87" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U87">
+        <v>1.27</v>
+      </c>
+      <c r="V87">
+        <v>213.7</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>37</v>
       </c>
       <c r="B88">
@@ -7337,7 +7532,7 @@
         <v>700</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>693</v>
       </c>
       <c r="F88">
@@ -7350,59 +7545,63 @@
         <v>500</v>
       </c>
       <c r="I88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>493</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
       <c r="K88">
+        <v>5</v>
+      </c>
+      <c r="L88">
         <v>4610</v>
       </c>
-      <c r="L88">
-        <v>10</v>
-      </c>
       <c r="M88">
+        <v>10</v>
+      </c>
+      <c r="N88">
         <v>403</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>38.451000000000001</v>
       </c>
-      <c r="O88">
-        <v>5</v>
-      </c>
       <c r="P88">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="11"/>
         <v>4207</v>
       </c>
-      <c r="Q88">
-        <v>40</v>
-      </c>
       <c r="R88">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S88">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>1.27</v>
-      </c>
-      <c r="U88" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V88" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W88" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X88" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U88">
+        <v>1.27</v>
+      </c>
+      <c r="V88">
+        <v>213.7</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>37</v>
       </c>
       <c r="B89">
@@ -7415,7 +7614,7 @@
         <v>700</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>693</v>
       </c>
       <c r="F89">
@@ -7428,59 +7627,63 @@
         <v>500</v>
       </c>
       <c r="I89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>493</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
       <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
         <v>4610</v>
       </c>
-      <c r="L89">
-        <v>10</v>
-      </c>
       <c r="M89">
+        <v>10</v>
+      </c>
+      <c r="N89">
         <v>369</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>29.684000000000001</v>
       </c>
-      <c r="O89">
-        <v>5</v>
-      </c>
       <c r="P89">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="11"/>
         <v>4241</v>
       </c>
-      <c r="Q89">
-        <v>40</v>
-      </c>
       <c r="R89">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S89">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>1.27</v>
-      </c>
-      <c r="U89" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V89" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W89" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X89" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U89">
+        <v>1.27</v>
+      </c>
+      <c r="V89">
+        <v>213.7</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>37</v>
       </c>
       <c r="B90">
@@ -7493,7 +7696,7 @@
         <v>705</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>703.25</v>
       </c>
       <c r="F90">
@@ -7503,53 +7706,53 @@
         <v>5</v>
       </c>
       <c r="I90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.75</v>
       </c>
-      <c r="J90">
-        <v>5</v>
-      </c>
       <c r="K90">
+        <v>5</v>
+      </c>
+      <c r="L90">
         <v>4610</v>
       </c>
-      <c r="L90">
-        <v>10</v>
-      </c>
-      <c r="O90">
-        <v>5</v>
+      <c r="M90">
+        <v>10</v>
       </c>
       <c r="P90">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q90">
-        <v>40</v>
-      </c>
       <c r="R90">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S90">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>1.27</v>
-      </c>
-      <c r="U90" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V90" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W90" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X90" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U90">
+        <v>1.27</v>
+      </c>
+      <c r="V90">
+        <v>213.7</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>37</v>
       </c>
       <c r="B91">
@@ -7562,7 +7765,7 @@
         <v>705</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>705</v>
       </c>
       <c r="F91">
@@ -7572,53 +7775,53 @@
         <v>5</v>
       </c>
       <c r="I91">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91">
         <v>4610</v>
       </c>
-      <c r="L91">
-        <v>10</v>
-      </c>
-      <c r="O91">
-        <v>5</v>
+      <c r="M91">
+        <v>10</v>
       </c>
       <c r="P91">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q91">
-        <v>40</v>
-      </c>
       <c r="R91">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S91">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>1.27</v>
-      </c>
-      <c r="U91" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V91" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X91" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U91">
+        <v>1.27</v>
+      </c>
+      <c r="V91">
+        <v>213.7</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>37</v>
       </c>
       <c r="B92">
@@ -7631,7 +7834,7 @@
         <v>710</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>706.5</v>
       </c>
       <c r="F92">
@@ -7641,53 +7844,53 @@
         <v>5</v>
       </c>
       <c r="I92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.5</v>
       </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
       <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="L92">
         <v>4610</v>
       </c>
-      <c r="L92">
-        <v>10</v>
-      </c>
-      <c r="O92">
-        <v>5</v>
+      <c r="M92">
+        <v>10</v>
       </c>
       <c r="P92">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q92">
-        <v>40</v>
-      </c>
       <c r="R92">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S92">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>1.27</v>
-      </c>
-      <c r="U92" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V92" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W92" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X92" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U92">
+        <v>1.27</v>
+      </c>
+      <c r="V92">
+        <v>213.7</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>37</v>
       </c>
       <c r="B93">
@@ -7700,7 +7903,7 @@
         <v>710</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>704.75</v>
       </c>
       <c r="F93">
@@ -7713,56 +7916,60 @@
         <v>500</v>
       </c>
       <c r="I93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>494.75</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>210</v>
       </c>
       <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93">
         <v>4610</v>
       </c>
-      <c r="L93">
-        <v>10</v>
-      </c>
       <c r="M93">
+        <v>10</v>
+      </c>
+      <c r="N93">
         <v>326</v>
       </c>
-      <c r="O93">
-        <v>5</v>
-      </c>
       <c r="P93">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="11"/>
         <v>4284</v>
       </c>
-      <c r="Q93">
-        <v>40</v>
-      </c>
       <c r="R93">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S93">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>1.27</v>
-      </c>
-      <c r="U93" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V93" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W93" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X93" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U93">
+        <v>1.27</v>
+      </c>
+      <c r="V93">
+        <v>213.7</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>37</v>
       </c>
       <c r="B94">
@@ -7775,7 +7982,7 @@
         <v>720</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>718.25</v>
       </c>
       <c r="F94">
@@ -7785,53 +7992,53 @@
         <v>5</v>
       </c>
       <c r="I94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.75</v>
       </c>
-      <c r="J94">
-        <v>5</v>
-      </c>
       <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="L94">
         <v>4610</v>
       </c>
-      <c r="L94">
-        <v>10</v>
-      </c>
-      <c r="O94">
-        <v>5</v>
+      <c r="M94">
+        <v>10</v>
       </c>
       <c r="P94">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q94">
-        <v>40</v>
-      </c>
       <c r="R94">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S94">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>1.27</v>
-      </c>
-      <c r="U94" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V94" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W94" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X94" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U94">
+        <v>1.27</v>
+      </c>
+      <c r="V94">
+        <v>213.7</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>37</v>
       </c>
       <c r="B95">
@@ -7844,7 +8051,7 @@
         <v>720</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>716.5</v>
       </c>
       <c r="F95">
@@ -7854,53 +8061,53 @@
         <v>5</v>
       </c>
       <c r="I95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3.5</v>
       </c>
-      <c r="J95">
-        <v>5</v>
-      </c>
       <c r="K95">
+        <v>5</v>
+      </c>
+      <c r="L95">
         <v>4610</v>
       </c>
-      <c r="L95">
-        <v>10</v>
-      </c>
-      <c r="O95">
-        <v>5</v>
+      <c r="M95">
+        <v>10</v>
       </c>
       <c r="P95">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="11"/>
         <v>4610</v>
       </c>
-      <c r="Q95">
-        <v>40</v>
-      </c>
       <c r="R95">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S95">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>1.27</v>
-      </c>
-      <c r="U95" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V95" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W95" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X95" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U95">
+        <v>1.27</v>
+      </c>
+      <c r="V95">
+        <v>213.7</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>37</v>
       </c>
       <c r="B96">
@@ -7913,7 +8120,7 @@
         <v>720</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>716.5</v>
       </c>
       <c r="F96">
@@ -7926,56 +8133,60 @@
         <v>500</v>
       </c>
       <c r="I96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>496.5</v>
       </c>
       <c r="J96">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>220</v>
       </c>
       <c r="K96">
+        <v>5</v>
+      </c>
+      <c r="L96">
         <v>4610</v>
       </c>
-      <c r="L96">
-        <v>10</v>
-      </c>
       <c r="M96">
+        <v>10</v>
+      </c>
+      <c r="N96">
         <v>321</v>
       </c>
-      <c r="O96">
-        <v>5</v>
-      </c>
       <c r="P96">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="11"/>
         <v>4289</v>
       </c>
-      <c r="Q96">
-        <v>40</v>
-      </c>
       <c r="R96">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S96">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>1.27</v>
-      </c>
-      <c r="U96" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V96" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W96" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X96" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U96">
+        <v>1.27</v>
+      </c>
+      <c r="V96">
+        <v>213.7</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>37</v>
       </c>
       <c r="B97">
@@ -7988,7 +8199,7 @@
         <v>720</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>718.25</v>
       </c>
       <c r="F97">
@@ -8001,123 +8212,95 @@
         <v>500</v>
       </c>
       <c r="I97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>498.25</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>220</v>
       </c>
       <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97">
         <v>4610</v>
       </c>
-      <c r="L97">
-        <v>10</v>
-      </c>
       <c r="M97">
+        <v>10</v>
+      </c>
+      <c r="N97">
         <v>339</v>
       </c>
-      <c r="O97">
-        <v>5</v>
-      </c>
       <c r="P97">
-        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="11"/>
         <v>4271</v>
       </c>
-      <c r="Q97">
-        <v>40</v>
-      </c>
       <c r="R97">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S97">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>1.27</v>
-      </c>
-      <c r="U97" s="7">
-        <v>213.7</v>
-      </c>
-      <c r="V97" s="7">
-        <f t="shared" si="11"/>
-        <v>2.137</v>
-      </c>
-      <c r="W97" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X97" s="7" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="U97">
+        <v>1.27</v>
+      </c>
+      <c r="V97">
+        <v>213.7</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="12"/>
+        <v>2.137</v>
+      </c>
+      <c r="X97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <f>AVERAGE(J3:J97)</f>
+        <v>174.09333333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <f>_xlfn.STDEV.P(J3:J97)</f>
+        <v>76.665363467184818</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z97" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z97">
-      <sortCondition ref="K2:K97"/>
+  <autoFilter ref="A2:AA97" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="188-I"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AA97">
+      <sortCondition ref="L2:L97"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:A52 A72:A84 A86:A1048576 A54:A70">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>ISNUMBER($M1)</formula>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISNUMBER($N1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>ISNUMBER($H1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A52 A86:A503 A72:A84 A54:A70">
-    <cfRule type="expression" dxfId="12" priority="14">
+  <conditionalFormatting sqref="A3:A503">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT(ISNUMBER($H3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X52 X72:X97 X54:X70">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>ISNUMBER($M85)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>ISNUMBER($H85)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>NOT(ISNUMBER($H85))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>ISNUMBER($M71)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>ISNUMBER($H71)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>NOT(ISNUMBER($H71))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X71">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>ISNUMBER($M53)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>ISNUMBER($H53)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(ISNUMBER($H53))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X53">
+  <conditionalFormatting sqref="Y3:Y97">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
